--- a/DAY08/data/2_danawa_data_final.xlsx
+++ b/DAY08/data/2_danawa_data_final.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1206"/>
+  <dimension ref="A1:F1209"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>873560</v>
+        <v>888590</v>
       </c>
       <c r="E2" t="n">
         <v>30</v>
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>446390</v>
+        <v>446400</v>
       </c>
       <c r="E3" t="n">
         <v>60</v>
@@ -560,7 +560,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>715570</v>
+        <v>714730</v>
       </c>
       <c r="E5" t="n">
         <v>30</v>
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>567400</v>
+        <v>568050</v>
       </c>
       <c r="E7" t="n">
         <v>60</v>
@@ -638,7 +638,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>990510</v>
+        <v>990480</v>
       </c>
       <c r="E8" t="n">
         <v>30</v>
@@ -716,7 +716,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>279560</v>
+        <v>291840</v>
       </c>
       <c r="E11" t="n">
         <v>50</v>
@@ -742,7 +742,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>185060</v>
+        <v>184870</v>
       </c>
       <c r="E12" t="n">
         <v>90</v>
@@ -768,7 +768,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>675550</v>
+        <v>675540</v>
       </c>
       <c r="E13" t="n">
         <v>60</v>
@@ -794,7 +794,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>165890</v>
+        <v>146000</v>
       </c>
       <c r="E14" t="n">
         <v>30</v>
@@ -872,7 +872,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>149780</v>
+        <v>149760</v>
       </c>
       <c r="E17" t="n">
         <v>12</v>
@@ -898,7 +898,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1044910</v>
+        <v>1043700</v>
       </c>
       <c r="E18" t="n">
         <v>30</v>
@@ -950,7 +950,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>802390</v>
+        <v>802340</v>
       </c>
       <c r="E20" t="n">
         <v>60</v>
@@ -976,7 +976,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>942250</v>
+        <v>942210</v>
       </c>
       <c r="E21" t="n">
         <v>80</v>
@@ -1002,7 +1002,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>524880</v>
+        <v>517980</v>
       </c>
       <c r="E22" t="n">
         <v>60</v>
@@ -1028,7 +1028,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>549170</v>
+        <v>531880</v>
       </c>
       <c r="E23" t="n">
         <v>60</v>
@@ -1080,7 +1080,7 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>383900</v>
+        <v>383850</v>
       </c>
       <c r="E25" t="n">
         <v>60</v>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>601270</v>
+        <v>600790</v>
       </c>
       <c r="E26" t="n">
         <v>60</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>788440</v>
+        <v>778970</v>
       </c>
       <c r="E27" t="n">
         <v>30</v>
@@ -1184,7 +1184,7 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>538020</v>
+        <v>529000</v>
       </c>
       <c r="E29" t="n">
         <v>43</v>
@@ -1210,7 +1210,7 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>724260</v>
+        <v>724210</v>
       </c>
       <c r="E30" t="n">
         <v>60</v>
@@ -1236,7 +1236,7 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>691070</v>
+        <v>690260</v>
       </c>
       <c r="E31" t="n">
         <v>60</v>
@@ -1262,7 +1262,7 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>497070</v>
+        <v>495920</v>
       </c>
       <c r="E32" t="n">
         <v>40</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>264240</v>
+        <v>264190</v>
       </c>
       <c r="E33" t="n">
         <v>53</v>
@@ -1444,7 +1444,7 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>298000</v>
+        <v>297990</v>
       </c>
       <c r="E39" t="n">
         <v>50</v>
@@ -1470,7 +1470,7 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>41020</v>
+        <v>40970</v>
       </c>
       <c r="E40" t="n">
         <v>20</v>
@@ -1548,7 +1548,7 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>498340</v>
+        <v>495530</v>
       </c>
       <c r="E43" t="n">
         <v>60</v>
@@ -1600,7 +1600,7 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>935850</v>
+        <v>934760</v>
       </c>
       <c r="E45" t="n">
         <v>30</v>
@@ -1756,7 +1756,7 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>871570</v>
+        <v>871120</v>
       </c>
       <c r="E51" t="n">
         <v>30</v>
@@ -1912,7 +1912,7 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>1258780</v>
+        <v>1258740</v>
       </c>
       <c r="E57" t="n">
         <v>30</v>
@@ -2250,7 +2250,7 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>925990</v>
+        <v>925940</v>
       </c>
       <c r="E70" t="n">
         <v>80</v>
@@ -2432,7 +2432,7 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>449430</v>
+        <v>449390</v>
       </c>
       <c r="E77" t="n">
         <v>40</v>
@@ -2588,7 +2588,7 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>760270</v>
+        <v>759360</v>
       </c>
       <c r="E83" t="n">
         <v>60</v>
@@ -2640,7 +2640,7 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>622250</v>
+        <v>630520</v>
       </c>
       <c r="E85" t="n">
         <v>60</v>
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>448980</v>
+        <v>448940</v>
       </c>
       <c r="E91" t="n">
         <v>60</v>
@@ -3030,7 +3030,7 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>161060</v>
+        <v>161020</v>
       </c>
       <c r="E100" t="n">
         <v>45</v>
@@ -3108,7 +3108,7 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>1512471</v>
+        <v>1504420</v>
       </c>
       <c r="E103" t="n">
         <v>80</v>
@@ -3238,7 +3238,7 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>567010</v>
+        <v>566990</v>
       </c>
       <c r="E108" t="n">
         <v>40</v>
@@ -3342,7 +3342,7 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>592730</v>
+        <v>593440</v>
       </c>
       <c r="E112" t="n">
         <v>60</v>
@@ -3368,7 +3368,7 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>500570</v>
+        <v>499580</v>
       </c>
       <c r="E113" t="n">
         <v>60</v>
@@ -3524,7 +3524,7 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>995220</v>
+        <v>980050</v>
       </c>
       <c r="E119" t="n">
         <v>70</v>
@@ -3732,7 +3732,7 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>702000</v>
+        <v>715210</v>
       </c>
       <c r="E127" t="n">
         <v>62</v>
@@ -3836,7 +3836,7 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>703610</v>
+        <v>718340</v>
       </c>
       <c r="E131" t="n">
         <v>60</v>
@@ -3966,7 +3966,7 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>206590</v>
+        <v>205790</v>
       </c>
       <c r="E136" t="n">
         <v>35</v>
@@ -3992,7 +3992,7 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>183200</v>
+        <v>183160</v>
       </c>
       <c r="E137" t="n">
         <v>65</v>
@@ -4226,7 +4226,7 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>166730</v>
+        <v>199870</v>
       </c>
       <c r="E146" t="n">
         <v>40</v>
@@ -4304,7 +4304,7 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>440000</v>
+        <v>462000</v>
       </c>
       <c r="E149" t="n">
         <v>60</v>
@@ -4382,7 +4382,7 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>42330</v>
+        <v>49800</v>
       </c>
       <c r="E152" t="n">
         <v>20</v>
@@ -4460,7 +4460,7 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>59400</v>
+        <v>59500</v>
       </c>
       <c r="E155" t="n">
         <v>9</v>
@@ -4694,7 +4694,7 @@
         </is>
       </c>
       <c r="D164" t="n">
-        <v>329000</v>
+        <v>328990</v>
       </c>
       <c r="E164" t="n">
         <v>53</v>
@@ -4824,7 +4824,7 @@
         </is>
       </c>
       <c r="D169" t="n">
-        <v>298190</v>
+        <v>298080</v>
       </c>
       <c r="E169" t="n">
         <v>50</v>
@@ -4876,7 +4876,7 @@
         </is>
       </c>
       <c r="D171" t="n">
-        <v>106900</v>
+        <v>109900</v>
       </c>
       <c r="E171" t="n">
         <v>35</v>
@@ -4928,7 +4928,7 @@
         </is>
       </c>
       <c r="D173" t="n">
-        <v>149170</v>
+        <v>148870</v>
       </c>
       <c r="E173" t="n">
         <v>33</v>
@@ -5266,7 +5266,7 @@
         </is>
       </c>
       <c r="D186" t="n">
-        <v>247480</v>
+        <v>247430</v>
       </c>
       <c r="E186" t="n">
         <v>45</v>
@@ -5292,7 +5292,7 @@
         </is>
       </c>
       <c r="D187" t="n">
-        <v>327730</v>
+        <v>327680</v>
       </c>
       <c r="E187" t="n">
         <v>75</v>
@@ -5318,7 +5318,7 @@
         </is>
       </c>
       <c r="D188" t="n">
-        <v>64900</v>
+        <v>64860</v>
       </c>
       <c r="E188" t="n">
         <v>30</v>
@@ -5422,7 +5422,7 @@
         </is>
       </c>
       <c r="D192" t="n">
-        <v>191990</v>
+        <v>229070</v>
       </c>
       <c r="E192" t="n">
         <v>30</v>
@@ -5474,7 +5474,7 @@
         </is>
       </c>
       <c r="D194" t="n">
-        <v>201990</v>
+        <v>195740</v>
       </c>
       <c r="E194" t="n">
         <v>20</v>
@@ -5656,7 +5656,7 @@
         </is>
       </c>
       <c r="D201" t="n">
-        <v>588190</v>
+        <v>588150</v>
       </c>
       <c r="E201" t="n">
         <v>62</v>
@@ -5682,7 +5682,7 @@
         </is>
       </c>
       <c r="D202" t="n">
-        <v>423660</v>
+        <v>420000</v>
       </c>
       <c r="E202" t="n">
         <v>70</v>
@@ -5786,7 +5786,7 @@
         </is>
       </c>
       <c r="D206" t="n">
-        <v>319000</v>
+        <v>398990</v>
       </c>
       <c r="E206" t="n">
         <v>60</v>
@@ -6098,7 +6098,7 @@
         </is>
       </c>
       <c r="D218" t="n">
-        <v>83170</v>
+        <v>85400</v>
       </c>
       <c r="E218" t="n">
         <v>35</v>
@@ -6436,7 +6436,7 @@
         </is>
       </c>
       <c r="D231" t="n">
-        <v>161790</v>
+        <v>161750</v>
       </c>
       <c r="E231" t="n">
         <v>45</v>
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="D241" t="n">
-        <v>174870</v>
+        <v>174830</v>
       </c>
       <c r="E241" t="n">
         <v>0</v>
@@ -7242,7 +7242,7 @@
         </is>
       </c>
       <c r="D262" t="n">
-        <v>159260</v>
+        <v>159220</v>
       </c>
       <c r="E262" t="n">
         <v>40</v>
@@ -7398,7 +7398,7 @@
         </is>
       </c>
       <c r="D268" t="n">
-        <v>104980</v>
+        <v>104940</v>
       </c>
       <c r="E268" t="n">
         <v>30</v>
@@ -7424,7 +7424,7 @@
         </is>
       </c>
       <c r="D269" t="n">
-        <v>446000</v>
+        <v>632590</v>
       </c>
       <c r="E269" t="n">
         <v>33</v>
@@ -7450,7 +7450,7 @@
         </is>
       </c>
       <c r="D270" t="n">
-        <v>847460</v>
+        <v>797160</v>
       </c>
       <c r="E270" t="n">
         <v>82</v>
@@ -7476,7 +7476,7 @@
         </is>
       </c>
       <c r="D271" t="n">
-        <v>600170</v>
+        <v>600120</v>
       </c>
       <c r="E271" t="n">
         <v>40</v>
@@ -7673,10 +7673,8 @@
           <t>핸디스틱청소기</t>
         </is>
       </c>
-      <c r="B279" t="inlineStr">
-        <is>
-          <t>무명</t>
-        </is>
+      <c r="B279" t="n">
+        <v>0</v>
       </c>
       <c r="C279" t="inlineStr">
         <is>
@@ -7687,7 +7685,7 @@
         <v>29980</v>
       </c>
       <c r="E279" t="n">
-        <v>20</v>
+        <v>240</v>
       </c>
       <c r="F279" t="n">
         <v>80</v>
@@ -7840,7 +7838,7 @@
         </is>
       </c>
       <c r="D285" t="n">
-        <v>848170</v>
+        <v>848120</v>
       </c>
       <c r="E285" t="n">
         <v>40</v>
@@ -7892,7 +7890,7 @@
         </is>
       </c>
       <c r="D287" t="n">
-        <v>488690</v>
+        <v>488650</v>
       </c>
       <c r="E287" t="n">
         <v>30</v>
@@ -8152,7 +8150,7 @@
         </is>
       </c>
       <c r="D297" t="n">
-        <v>367670</v>
+        <v>367630</v>
       </c>
       <c r="E297" t="n">
         <v>48</v>
@@ -8464,7 +8462,7 @@
         </is>
       </c>
       <c r="D309" t="n">
-        <v>583200</v>
+        <v>583150</v>
       </c>
       <c r="E309" t="n">
         <v>60</v>
@@ -8542,7 +8540,7 @@
         </is>
       </c>
       <c r="D312" t="n">
-        <v>341720</v>
+        <v>341680</v>
       </c>
       <c r="E312" t="n">
         <v>35</v>
@@ -8750,7 +8748,7 @@
         </is>
       </c>
       <c r="D320" t="n">
-        <v>460190</v>
+        <v>460150</v>
       </c>
       <c r="E320" t="n">
         <v>30</v>
@@ -8776,7 +8774,7 @@
         </is>
       </c>
       <c r="D321" t="n">
-        <v>676100</v>
+        <v>675370</v>
       </c>
       <c r="E321" t="n">
         <v>40</v>
@@ -8854,7 +8852,7 @@
         </is>
       </c>
       <c r="D324" t="n">
-        <v>128000</v>
+        <v>127990</v>
       </c>
       <c r="E324" t="n">
         <v>35</v>
@@ -8906,7 +8904,7 @@
         </is>
       </c>
       <c r="D326" t="n">
-        <v>392450</v>
+        <v>391990</v>
       </c>
       <c r="E326" t="n">
         <v>70</v>
@@ -8984,7 +8982,7 @@
         </is>
       </c>
       <c r="D329" t="n">
-        <v>529990</v>
+        <v>529860</v>
       </c>
       <c r="E329" t="n">
         <v>20</v>
@@ -9270,7 +9268,7 @@
         </is>
       </c>
       <c r="D340" t="n">
-        <v>397700</v>
+        <v>397690</v>
       </c>
       <c r="E340" t="n">
         <v>70</v>
@@ -9322,7 +9320,7 @@
         </is>
       </c>
       <c r="D342" t="n">
-        <v>66100</v>
+        <v>66800</v>
       </c>
       <c r="E342" t="n">
         <v>33</v>
@@ -9400,7 +9398,7 @@
         </is>
       </c>
       <c r="D345" t="n">
-        <v>159890</v>
+        <v>154900</v>
       </c>
       <c r="E345" t="n">
         <v>30</v>
@@ -9608,7 +9606,7 @@
         </is>
       </c>
       <c r="D353" t="n">
-        <v>202170</v>
+        <v>202130</v>
       </c>
       <c r="E353" t="n">
         <v>57</v>
@@ -9634,7 +9632,7 @@
         </is>
       </c>
       <c r="D354" t="n">
-        <v>188840</v>
+        <v>222270</v>
       </c>
       <c r="E354" t="n">
         <v>46</v>
@@ -10102,7 +10100,7 @@
         </is>
       </c>
       <c r="D372" t="n">
-        <v>720240</v>
+        <v>720200</v>
       </c>
       <c r="E372" t="n">
         <v>60</v>
@@ -10180,7 +10178,7 @@
         </is>
       </c>
       <c r="D375" t="n">
-        <v>178000</v>
+        <v>177900</v>
       </c>
       <c r="E375" t="n">
         <v>45</v>
@@ -10492,7 +10490,7 @@
         </is>
       </c>
       <c r="D387" t="n">
-        <v>251610</v>
+        <v>251560</v>
       </c>
       <c r="E387" t="n">
         <v>45</v>
@@ -10674,7 +10672,7 @@
         </is>
       </c>
       <c r="D394" t="n">
-        <v>188990</v>
+        <v>169640</v>
       </c>
       <c r="E394" t="n">
         <v>50</v>
@@ -11064,7 +11062,7 @@
         </is>
       </c>
       <c r="D409" t="n">
-        <v>147420</v>
+        <v>170100</v>
       </c>
       <c r="E409" t="n">
         <v>50</v>
@@ -11220,7 +11218,7 @@
         </is>
       </c>
       <c r="D415" t="n">
-        <v>67000</v>
+        <v>74000</v>
       </c>
       <c r="E415" t="n">
         <v>0</v>
@@ -11324,7 +11322,7 @@
         </is>
       </c>
       <c r="D419" t="n">
-        <v>598000</v>
+        <v>630000</v>
       </c>
       <c r="E419" t="n">
         <v>40</v>
@@ -11402,7 +11400,7 @@
         </is>
       </c>
       <c r="D422" t="n">
-        <v>797090</v>
+        <v>797050</v>
       </c>
       <c r="E422" t="n">
         <v>60</v>
@@ -11480,7 +11478,7 @@
         </is>
       </c>
       <c r="D425" t="n">
-        <v>244380</v>
+        <v>244250</v>
       </c>
       <c r="E425" t="n">
         <v>0</v>
@@ -11766,7 +11764,7 @@
         </is>
       </c>
       <c r="D436" t="n">
-        <v>107690</v>
+        <v>97890</v>
       </c>
       <c r="E436" t="n">
         <v>45</v>
@@ -11844,7 +11842,7 @@
         </is>
       </c>
       <c r="D439" t="n">
-        <v>598000</v>
+        <v>630000</v>
       </c>
       <c r="E439" t="n">
         <v>40</v>
@@ -11922,7 +11920,7 @@
         </is>
       </c>
       <c r="D442" t="n">
-        <v>752160</v>
+        <v>752110</v>
       </c>
       <c r="E442" t="n">
         <v>30</v>
@@ -12026,7 +12024,7 @@
         </is>
       </c>
       <c r="D446" t="n">
-        <v>210000</v>
+        <v>209900</v>
       </c>
       <c r="E446" t="n">
         <v>35</v>
@@ -12052,7 +12050,7 @@
         </is>
       </c>
       <c r="D447" t="n">
-        <v>1049970</v>
+        <v>1049930</v>
       </c>
       <c r="E447" t="n">
         <v>60</v>
@@ -12156,7 +12154,7 @@
         </is>
       </c>
       <c r="D451" t="n">
-        <v>144050</v>
+        <v>109380</v>
       </c>
       <c r="E451" t="n">
         <v>25</v>
@@ -12182,7 +12180,7 @@
         </is>
       </c>
       <c r="D452" t="n">
-        <v>741870</v>
+        <v>741030</v>
       </c>
       <c r="E452" t="n">
         <v>40</v>
@@ -12390,7 +12388,7 @@
         </is>
       </c>
       <c r="D460" t="n">
-        <v>118590</v>
+        <v>123750</v>
       </c>
       <c r="E460" t="n">
         <v>60</v>
@@ -12572,7 +12570,7 @@
         </is>
       </c>
       <c r="D467" t="n">
-        <v>164680</v>
+        <v>178950</v>
       </c>
       <c r="E467" t="n">
         <v>50</v>
@@ -12754,7 +12752,7 @@
         </is>
       </c>
       <c r="D474" t="n">
-        <v>194400</v>
+        <v>194360</v>
       </c>
       <c r="E474" t="n">
         <v>0</v>
@@ -13118,7 +13116,7 @@
         </is>
       </c>
       <c r="D488" t="n">
-        <v>313110</v>
+        <v>315360</v>
       </c>
       <c r="E488" t="n">
         <v>50</v>
@@ -13248,7 +13246,7 @@
         </is>
       </c>
       <c r="D493" t="n">
-        <v>122800</v>
+        <v>122180</v>
       </c>
       <c r="E493" t="n">
         <v>35</v>
@@ -13872,7 +13870,7 @@
         </is>
       </c>
       <c r="D517" t="n">
-        <v>476550</v>
+        <v>476510</v>
       </c>
       <c r="E517" t="n">
         <v>40</v>
@@ -13976,7 +13974,7 @@
         </is>
       </c>
       <c r="D521" t="n">
-        <v>452600</v>
+        <v>452560</v>
       </c>
       <c r="E521" t="n">
         <v>45</v>
@@ -14184,7 +14182,7 @@
         </is>
       </c>
       <c r="D529" t="n">
-        <v>54690</v>
+        <v>54570</v>
       </c>
       <c r="E529" t="n">
         <v>11</v>
@@ -14860,7 +14858,7 @@
         </is>
       </c>
       <c r="D555" t="n">
-        <v>144990</v>
+        <v>144950</v>
       </c>
       <c r="E555" t="n">
         <v>20</v>
@@ -15380,7 +15378,7 @@
         </is>
       </c>
       <c r="D575" t="n">
-        <v>89000</v>
+        <v>89900</v>
       </c>
       <c r="E575" t="n">
         <v>0</v>
@@ -15562,7 +15560,7 @@
         </is>
       </c>
       <c r="D582" t="n">
-        <v>221450</v>
+        <v>221410</v>
       </c>
       <c r="E582" t="n">
         <v>35</v>
@@ -15718,7 +15716,7 @@
         </is>
       </c>
       <c r="D588" t="n">
-        <v>95600</v>
+        <v>95500</v>
       </c>
       <c r="E588" t="n">
         <v>20</v>
@@ -15822,7 +15820,7 @@
         </is>
       </c>
       <c r="D592" t="n">
-        <v>138600</v>
+        <v>138570</v>
       </c>
       <c r="E592" t="n">
         <v>25</v>
@@ -16472,7 +16470,7 @@
         </is>
       </c>
       <c r="D617" t="n">
-        <v>947660</v>
+        <v>947670</v>
       </c>
       <c r="E617" t="n">
         <v>60</v>
@@ -16654,7 +16652,7 @@
         </is>
       </c>
       <c r="D624" t="n">
-        <v>158190</v>
+        <v>158150</v>
       </c>
       <c r="E624" t="n">
         <v>30</v>
@@ -16940,7 +16938,7 @@
         </is>
       </c>
       <c r="D635" t="n">
-        <v>42330</v>
+        <v>49800</v>
       </c>
       <c r="E635" t="n">
         <v>30</v>
@@ -17148,7 +17146,7 @@
         </is>
       </c>
       <c r="D643" t="n">
-        <v>91810</v>
+        <v>89820</v>
       </c>
       <c r="E643" t="n">
         <v>40</v>
@@ -17720,7 +17718,7 @@
         </is>
       </c>
       <c r="D665" t="n">
-        <v>225460</v>
+        <v>225450</v>
       </c>
       <c r="E665" t="n">
         <v>150</v>
@@ -17876,7 +17874,7 @@
         </is>
       </c>
       <c r="D671" t="n">
-        <v>537340</v>
+        <v>537300</v>
       </c>
       <c r="E671" t="n">
         <v>35</v>
@@ -20814,7 +20812,7 @@
         </is>
       </c>
       <c r="D784" t="n">
-        <v>179550</v>
+        <v>175770</v>
       </c>
       <c r="E784" t="n">
         <v>26</v>
@@ -20892,7 +20890,7 @@
         </is>
       </c>
       <c r="D787" t="n">
-        <v>743000</v>
+        <v>743070</v>
       </c>
       <c r="E787" t="n">
         <v>20</v>
@@ -21074,7 +21072,7 @@
         </is>
       </c>
       <c r="D794" t="n">
-        <v>85000</v>
+        <v>84800</v>
       </c>
       <c r="E794" t="n">
         <v>30</v>
@@ -21152,7 +21150,7 @@
         </is>
       </c>
       <c r="D797" t="n">
-        <v>596780</v>
+        <v>596730</v>
       </c>
       <c r="E797" t="n">
         <v>40</v>
@@ -21204,7 +21202,7 @@
         </is>
       </c>
       <c r="D799" t="n">
-        <v>96990</v>
+        <v>97250</v>
       </c>
       <c r="E799" t="n">
         <v>0</v>
@@ -21490,7 +21488,7 @@
         </is>
       </c>
       <c r="D810" t="n">
-        <v>88550</v>
+        <v>76900</v>
       </c>
       <c r="E810" t="n">
         <v>0</v>
@@ -21906,7 +21904,7 @@
         </is>
       </c>
       <c r="D826" t="n">
-        <v>449980</v>
+        <v>449940</v>
       </c>
       <c r="E826" t="n">
         <v>53</v>
@@ -22088,7 +22086,7 @@
         </is>
       </c>
       <c r="D833" t="n">
-        <v>111090</v>
+        <v>111050</v>
       </c>
       <c r="E833" t="n">
         <v>20</v>
@@ -22582,7 +22580,7 @@
         </is>
       </c>
       <c r="D852" t="n">
-        <v>193240</v>
+        <v>193190</v>
       </c>
       <c r="E852" t="n">
         <v>40</v>
@@ -22712,7 +22710,7 @@
         </is>
       </c>
       <c r="D857" t="n">
-        <v>929840</v>
+        <v>929790</v>
       </c>
       <c r="E857" t="n">
         <v>60</v>
@@ -22816,7 +22814,7 @@
         </is>
       </c>
       <c r="D861" t="n">
-        <v>50030</v>
+        <v>50820</v>
       </c>
       <c r="E861" t="n">
         <v>0</v>
@@ -24443,10 +24441,8 @@
           <t>핸디스틱청소기</t>
         </is>
       </c>
-      <c r="B924" t="inlineStr">
-        <is>
-          <t>브라프</t>
-        </is>
+      <c r="B924" t="n">
+        <v>0</v>
       </c>
       <c r="C924" t="inlineStr">
         <is>
@@ -24963,10 +24959,8 @@
           <t>핸디스틱청소기</t>
         </is>
       </c>
-      <c r="B944" t="inlineStr">
-        <is>
-          <t>홈룸</t>
-        </is>
+      <c r="B944" t="n">
+        <v>0</v>
       </c>
       <c r="C944" t="inlineStr">
         <is>
@@ -25038,27 +25032,25 @@
     <row r="947">
       <c r="A947" t="inlineStr">
         <is>
-          <t>핸디스틱청소기+로봇청소기</t>
-        </is>
-      </c>
-      <c r="B947" t="inlineStr">
-        <is>
-          <t>삼성전자</t>
-        </is>
+          <t>핸디스틱청소기</t>
+        </is>
+      </c>
+      <c r="B947" t="n">
+        <v>0</v>
       </c>
       <c r="C947" t="inlineStr">
         <is>
-          <t>비스포크 제트 AI VS28C973ESS + VR50C95A46S</t>
+          <t>스웨덴</t>
         </is>
       </c>
       <c r="D947" t="n">
-        <v>2374850</v>
+        <v>118000</v>
       </c>
       <c r="E947" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="F947" t="n">
-        <v>280</v>
+        <v>100</v>
       </c>
     </row>
     <row r="948">
@@ -25074,11 +25066,11 @@
       </c>
       <c r="C948" t="inlineStr">
         <is>
-          <t>비스포크 제트 AI VS28C973DRG + VR50C95A46A</t>
+          <t>비스포크 제트 AI VS28C973ESS + VR50C95A46S</t>
         </is>
       </c>
       <c r="D948" t="n">
-        <v>2227110</v>
+        <v>2374850</v>
       </c>
       <c r="E948" t="n">
         <v>80</v>
@@ -25090,27 +25082,27 @@
     <row r="949">
       <c r="A949" t="inlineStr">
         <is>
-          <t>핸디스틱청소기</t>
+          <t>핸디스틱청소기+로봇청소기</t>
         </is>
       </c>
       <c r="B949" t="inlineStr">
         <is>
-          <t>파벡스</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="C949" t="inlineStr">
         <is>
-          <t>FX-204HV</t>
+          <t>비스포크 제트 AI VS28C973DRG + VR50C95A46A</t>
         </is>
       </c>
       <c r="D949" t="n">
-        <v>69000</v>
+        <v>2227110</v>
       </c>
       <c r="E949" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="F949" t="n">
-        <v>0</v>
+        <v>280</v>
       </c>
     </row>
     <row r="950">
@@ -25121,22 +25113,22 @@
       </c>
       <c r="B950" t="inlineStr">
         <is>
-          <t>포콘스</t>
+          <t>파벡스</t>
         </is>
       </c>
       <c r="C950" t="inlineStr">
         <is>
-          <t>디즈니 도날드덕 PD-VC01</t>
+          <t>FX-204HV</t>
         </is>
       </c>
       <c r="D950" t="n">
-        <v>139000</v>
+        <v>69000</v>
       </c>
       <c r="E950" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F950" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
     </row>
     <row r="951">
@@ -25173,22 +25165,22 @@
       </c>
       <c r="B952" t="inlineStr">
         <is>
-          <t>비타그램</t>
+          <t>포콘스</t>
         </is>
       </c>
       <c r="C952" t="inlineStr">
         <is>
-          <t>VG-VC1000</t>
+          <t>디즈니 도날드덕 PD-VC01</t>
         </is>
       </c>
       <c r="D952" t="n">
-        <v>92610</v>
+        <v>139000</v>
       </c>
       <c r="E952" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F952" t="n">
-        <v>80</v>
+        <v>130</v>
       </c>
     </row>
     <row r="953">
@@ -25199,22 +25191,22 @@
       </c>
       <c r="B953" t="inlineStr">
         <is>
-          <t>리빙앤</t>
+          <t>비타그램</t>
         </is>
       </c>
       <c r="C953" t="inlineStr">
         <is>
-          <t>LV-20</t>
+          <t>VG-VC1000</t>
         </is>
       </c>
       <c r="D953" t="n">
-        <v>119000</v>
+        <v>92610</v>
       </c>
       <c r="E953" t="n">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="F953" t="n">
-        <v>140</v>
+        <v>80</v>
       </c>
     </row>
     <row r="954">
@@ -25225,22 +25217,22 @@
       </c>
       <c r="B954" t="inlineStr">
         <is>
-          <t>하이제로</t>
+          <t>리빙앤</t>
         </is>
       </c>
       <c r="C954" t="inlineStr">
         <is>
-          <t>F500</t>
+          <t>LV-20</t>
         </is>
       </c>
       <c r="D954" t="n">
-        <v>799000</v>
+        <v>119000</v>
       </c>
       <c r="E954" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="F954" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
     </row>
     <row r="955">
@@ -25251,19 +25243,19 @@
       </c>
       <c r="B955" t="inlineStr">
         <is>
-          <t>스위스밀리터리</t>
+          <t>드리미</t>
         </is>
       </c>
       <c r="C955" t="inlineStr">
         <is>
-          <t>더 화이트 SMA-VM3000</t>
+          <t>H12 Pro</t>
         </is>
       </c>
       <c r="D955" t="n">
-        <v>238500</v>
+        <v>599000</v>
       </c>
       <c r="E955" t="n">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="F955" t="n">
         <v>0</v>
@@ -25277,22 +25269,22 @@
       </c>
       <c r="B956" t="inlineStr">
         <is>
-          <t>자일렉</t>
+          <t>하이제로</t>
         </is>
       </c>
       <c r="C956" t="inlineStr">
         <is>
-          <t>에이블 Z2</t>
+          <t>F500</t>
         </is>
       </c>
       <c r="D956" t="n">
-        <v>89000</v>
+        <v>799000</v>
       </c>
       <c r="E956" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="F956" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
     </row>
     <row r="957">
@@ -25303,22 +25295,22 @@
       </c>
       <c r="B957" t="inlineStr">
         <is>
-          <t>롯데하이마트</t>
+          <t>스위스밀리터리</t>
         </is>
       </c>
       <c r="C957" t="inlineStr">
         <is>
-          <t>하이메이드 HV-NS250IV</t>
+          <t>더 화이트 SMA-VM3000</t>
         </is>
       </c>
       <c r="D957" t="n">
-        <v>232470</v>
+        <v>238500</v>
       </c>
       <c r="E957" t="n">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="F957" t="n">
-        <v>240</v>
+        <v>0</v>
       </c>
     </row>
     <row r="958">
@@ -25329,22 +25321,22 @@
       </c>
       <c r="B958" t="inlineStr">
         <is>
-          <t>샤오미</t>
+          <t>자일렉</t>
         </is>
       </c>
       <c r="C958" t="inlineStr">
         <is>
-          <t>SHUNZAO Z11 맥스</t>
+          <t>에이블 Z2</t>
         </is>
       </c>
       <c r="D958" t="n">
-        <v>286610</v>
+        <v>89000</v>
       </c>
       <c r="E958" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="F958" t="n">
-        <v>260</v>
+        <v>130</v>
       </c>
     </row>
     <row r="959">
@@ -25355,22 +25347,22 @@
       </c>
       <c r="B959" t="inlineStr">
         <is>
-          <t>PRETTYCARE</t>
+          <t>롯데하이마트</t>
         </is>
       </c>
       <c r="C959" t="inlineStr">
         <is>
-          <t>W100</t>
+          <t>하이메이드 HV-NS250IV</t>
         </is>
       </c>
       <c r="D959" t="n">
-        <v>166520</v>
+        <v>232470</v>
       </c>
       <c r="E959" t="n">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="F959" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
     </row>
     <row r="960">
@@ -25381,126 +25373,126 @@
       </c>
       <c r="B960" t="inlineStr">
         <is>
-          <t>피닉스전자</t>
+          <t>샤오미</t>
         </is>
       </c>
       <c r="C960" t="inlineStr">
         <is>
-          <t>보본 VB-V1250W</t>
+          <t>SHUNZAO Z11 맥스</t>
         </is>
       </c>
       <c r="D960" t="n">
-        <v>239000</v>
+        <v>286610</v>
       </c>
       <c r="E960" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F960" t="n">
-        <v>110</v>
+        <v>260</v>
       </c>
     </row>
     <row r="961">
       <c r="A961" t="inlineStr">
         <is>
-          <t>핸디스틱청소기+로봇청소기</t>
+          <t>핸디스틱청소기</t>
         </is>
       </c>
       <c r="B961" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>PRETTYCARE</t>
         </is>
       </c>
       <c r="C961" t="inlineStr">
         <is>
-          <t>오브제컬렉션 코드제로 A9S AU9882MD + MO971GA</t>
+          <t>W100</t>
         </is>
       </c>
       <c r="D961" t="n">
-        <v>2778840</v>
+        <v>166520</v>
       </c>
       <c r="E961" t="n">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F961" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
     </row>
     <row r="962">
       <c r="A962" t="inlineStr">
         <is>
-          <t>핸디스틱청소기+로봇청소기</t>
+          <t>핸디스틱청소기</t>
         </is>
       </c>
       <c r="B962" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>피닉스전자</t>
         </is>
       </c>
       <c r="C962" t="inlineStr">
         <is>
-          <t>오브제컬렉션 코드제로 A9S AU9982GD + MO971GA</t>
+          <t>보본 VB-V1250W</t>
         </is>
       </c>
       <c r="D962" t="n">
-        <v>1924820</v>
+        <v>239000</v>
       </c>
       <c r="E962" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F962" t="n">
-        <v>220</v>
+        <v>110</v>
       </c>
     </row>
     <row r="963">
       <c r="A963" t="inlineStr">
         <is>
-          <t>핸디스틱청소기</t>
+          <t>핸디스틱청소기+로봇청소기</t>
         </is>
       </c>
       <c r="B963" t="inlineStr">
         <is>
-          <t>ES산업</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="C963" t="inlineStr">
         <is>
-          <t>위고 올인원 아쿠아 W3CW</t>
+          <t>오브제컬렉션 코드제로 A9S AU9882MD + MO971GA</t>
         </is>
       </c>
       <c r="D963" t="n">
-        <v>237990</v>
+        <v>2778840</v>
       </c>
       <c r="E963" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="F963" t="n">
-        <v>60</v>
+        <v>220</v>
       </c>
     </row>
     <row r="964">
       <c r="A964" t="inlineStr">
         <is>
-          <t>핸디스틱청소기</t>
+          <t>핸디스틱청소기+로봇청소기</t>
         </is>
       </c>
       <c r="B964" t="inlineStr">
         <is>
-          <t>ES산업</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="C964" t="inlineStr">
         <is>
-          <t>위고 코드리스 W3CV</t>
+          <t>오브제컬렉션 코드제로 A9S AU9982GD + MO971GA</t>
         </is>
       </c>
       <c r="D964" t="n">
-        <v>150690</v>
+        <v>1924820</v>
       </c>
       <c r="E964" t="n">
         <v>60</v>
       </c>
       <c r="F964" t="n">
-        <v>260</v>
+        <v>220</v>
       </c>
     </row>
     <row r="965">
@@ -25511,48 +25503,48 @@
       </c>
       <c r="B965" t="inlineStr">
         <is>
-          <t>오아</t>
+          <t>ES산업</t>
         </is>
       </c>
       <c r="C965" t="inlineStr">
         <is>
-          <t>보아르 포스 B40</t>
+          <t>위고 올인원 아쿠아 W3CW</t>
         </is>
       </c>
       <c r="D965" t="n">
-        <v>194470</v>
+        <v>237990</v>
       </c>
       <c r="E965" t="n">
+        <v>30</v>
+      </c>
+      <c r="F965" t="n">
         <v>60</v>
-      </c>
-      <c r="F965" t="n">
-        <v>300</v>
       </c>
     </row>
     <row r="966">
       <c r="A966" t="inlineStr">
         <is>
-          <t>핸디스틱청소기+로봇청소기</t>
+          <t>핸디스틱청소기</t>
         </is>
       </c>
       <c r="B966" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>ES산업</t>
         </is>
       </c>
       <c r="C966" t="inlineStr">
         <is>
-          <t>오브제컬렉션 코드제로 A9S AU9982WD + MO971WA</t>
+          <t>위고 코드리스 W3CV</t>
         </is>
       </c>
       <c r="D966" t="n">
-        <v>1923350</v>
+        <v>150690</v>
       </c>
       <c r="E966" t="n">
         <v>60</v>
       </c>
       <c r="F966" t="n">
-        <v>220</v>
+        <v>260</v>
       </c>
     </row>
     <row r="967">
@@ -25563,48 +25555,48 @@
       </c>
       <c r="B967" t="inlineStr">
         <is>
-          <t>신일전자</t>
+          <t>오아</t>
         </is>
       </c>
       <c r="C967" t="inlineStr">
         <is>
-          <t>SVC-AQUA5000</t>
+          <t>보아르 포스 B40</t>
         </is>
       </c>
       <c r="D967" t="n">
-        <v>345000</v>
+        <v>194470</v>
       </c>
       <c r="E967" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="F967" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
     </row>
     <row r="968">
       <c r="A968" t="inlineStr">
         <is>
-          <t>핸디스틱청소기</t>
+          <t>핸디스틱청소기+로봇청소기</t>
         </is>
       </c>
       <c r="B968" t="inlineStr">
         <is>
-          <t>모모픽</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="C968" t="inlineStr">
         <is>
-          <t>MAX300</t>
+          <t>오브제컬렉션 코드제로 A9S AU9982WD + MO971WA</t>
         </is>
       </c>
       <c r="D968" t="n">
-        <v>158000</v>
+        <v>1923350</v>
       </c>
       <c r="E968" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="F968" t="n">
-        <v>300</v>
+        <v>220</v>
       </c>
     </row>
     <row r="969">
@@ -25615,48 +25607,48 @@
       </c>
       <c r="B969" t="inlineStr">
         <is>
-          <t>로이드미</t>
+          <t>신일전자</t>
         </is>
       </c>
       <c r="C969" t="inlineStr">
         <is>
-          <t>F8 프로</t>
+          <t>SVC-AQUA5000</t>
         </is>
       </c>
       <c r="D969" t="n">
-        <v>793400</v>
+        <v>345000</v>
       </c>
       <c r="E969" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="F969" t="n">
-        <v>235</v>
+        <v>0</v>
       </c>
     </row>
     <row r="970">
       <c r="A970" t="inlineStr">
         <is>
-          <t>핸디스틱청소기+로봇청소기</t>
+          <t>핸디스틱청소기</t>
         </is>
       </c>
       <c r="B970" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>모모픽</t>
         </is>
       </c>
       <c r="C970" t="inlineStr">
         <is>
-          <t>비스포크 제트 VS20B957D4E + VR50T95936W</t>
+          <t>MAX300</t>
         </is>
       </c>
       <c r="D970" t="n">
-        <v>2498000</v>
+        <v>158000</v>
       </c>
       <c r="E970" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="F970" t="n">
-        <v>220</v>
+        <v>300</v>
       </c>
     </row>
     <row r="971">
@@ -25667,48 +25659,48 @@
       </c>
       <c r="B971" t="inlineStr">
         <is>
-          <t>캐치웰</t>
+          <t>로이드미</t>
         </is>
       </c>
       <c r="C971" t="inlineStr">
         <is>
-          <t>VX11 PLUS</t>
+          <t>F8 프로</t>
         </is>
       </c>
       <c r="D971" t="n">
-        <v>160470</v>
+        <v>793400</v>
       </c>
       <c r="E971" t="n">
         <v>60</v>
       </c>
       <c r="F971" t="n">
-        <v>230</v>
+        <v>235</v>
       </c>
     </row>
     <row r="972">
       <c r="A972" t="inlineStr">
         <is>
-          <t>핸디스틱청소기</t>
+          <t>핸디스틱청소기+로봇청소기</t>
         </is>
       </c>
       <c r="B972" t="inlineStr">
         <is>
-          <t>오아</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="C972" t="inlineStr">
         <is>
-          <t>보아르 클린스틱 OA-C0143</t>
+          <t>비스포크 제트 VS20B957D4E + VR50T95936W</t>
         </is>
       </c>
       <c r="D972" t="n">
-        <v>74900</v>
+        <v>2498000</v>
       </c>
       <c r="E972" t="n">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="F972" t="n">
-        <v>130</v>
+        <v>220</v>
       </c>
     </row>
     <row r="973">
@@ -25719,22 +25711,22 @@
       </c>
       <c r="B973" t="inlineStr">
         <is>
-          <t>아이리스</t>
+          <t>캐치웰</t>
         </is>
       </c>
       <c r="C973" t="inlineStr">
         <is>
-          <t>SCD-M1P</t>
+          <t>VX11 PLUS</t>
         </is>
       </c>
       <c r="D973" t="n">
-        <v>99000</v>
+        <v>160470</v>
       </c>
       <c r="E973" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F973" t="n">
-        <v>0</v>
+        <v>230</v>
       </c>
     </row>
     <row r="974">
@@ -25745,19 +25737,19 @@
       </c>
       <c r="B974" t="inlineStr">
         <is>
-          <t>클래파</t>
+          <t>오아</t>
         </is>
       </c>
       <c r="C974" t="inlineStr">
         <is>
-          <t>BVC-H11</t>
+          <t>보아르 클린스틱 OA-C0143</t>
         </is>
       </c>
       <c r="D974" t="n">
-        <v>122550</v>
+        <v>74900</v>
       </c>
       <c r="E974" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F974" t="n">
         <v>130</v>
@@ -25771,19 +25763,19 @@
       </c>
       <c r="B975" t="inlineStr">
         <is>
-          <t>필립스</t>
+          <t>아이리스</t>
         </is>
       </c>
       <c r="C975" t="inlineStr">
         <is>
-          <t>스피드 프로 맥스 XC7042/01</t>
+          <t>SCD-M1P</t>
         </is>
       </c>
       <c r="D975" t="n">
-        <v>616300</v>
+        <v>99000</v>
       </c>
       <c r="E975" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="F975" t="n">
         <v>0</v>
@@ -25797,22 +25789,22 @@
       </c>
       <c r="B976" t="inlineStr">
         <is>
-          <t>인라이튼</t>
+          <t>클래파</t>
         </is>
       </c>
       <c r="C976" t="inlineStr">
         <is>
-          <t>뉴트 뉴웨이브 W5</t>
+          <t>BVC-H11</t>
         </is>
       </c>
       <c r="D976" t="n">
-        <v>234060</v>
+        <v>122550</v>
       </c>
       <c r="E976" t="n">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="F976" t="n">
-        <v>230</v>
+        <v>130</v>
       </c>
     </row>
     <row r="977">
@@ -25823,54 +25815,54 @@
       </c>
       <c r="B977" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>필립스</t>
         </is>
       </c>
       <c r="C977" t="inlineStr">
         <is>
-          <t>제트 VS20T92K0BF</t>
+          <t>스피드 프로 맥스 XC7042/01</t>
         </is>
       </c>
       <c r="D977" t="n">
-        <v>705150</v>
+        <v>616300</v>
       </c>
       <c r="E977" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="F977" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="978">
       <c r="A978" t="inlineStr">
         <is>
-          <t>핸디스틱청소기+로봇청소기</t>
+          <t>핸디스틱청소기</t>
         </is>
       </c>
       <c r="B978" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>인라이튼</t>
         </is>
       </c>
       <c r="C978" t="inlineStr">
         <is>
-          <t>비스포크 제트 VS20B956D5G + VR30T85513B</t>
+          <t>뉴트 뉴웨이브 W5</t>
         </is>
       </c>
       <c r="D978" t="n">
-        <v>1573160</v>
+        <v>234060</v>
       </c>
       <c r="E978" t="n">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="F978" t="n">
-        <v>220</v>
+        <v>230</v>
       </c>
     </row>
     <row r="979">
       <c r="A979" t="inlineStr">
         <is>
-          <t>핸디스틱청소기+로봇청소기</t>
+          <t>핸디스틱청소기</t>
         </is>
       </c>
       <c r="B979" t="inlineStr">
@@ -25880,17 +25872,17 @@
       </c>
       <c r="C979" t="inlineStr">
         <is>
-          <t>비스포크 제트 VS20B957G5C + VR50T95936C</t>
+          <t>제트 VS20T92K0BF</t>
         </is>
       </c>
       <c r="D979" t="n">
-        <v>2735391</v>
+        <v>705110</v>
       </c>
       <c r="E979" t="n">
         <v>60</v>
       </c>
       <c r="F979" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
     </row>
     <row r="980">
@@ -25906,11 +25898,11 @@
       </c>
       <c r="C980" t="inlineStr">
         <is>
-          <t>비스포크 제트 VS20B956D5E + VR30T85514W</t>
+          <t>비스포크 제트 VS20B956D5G + VR30T85513B</t>
         </is>
       </c>
       <c r="D980" t="n">
-        <v>1682572</v>
+        <v>1573160</v>
       </c>
       <c r="E980" t="n">
         <v>60</v>
@@ -25932,11 +25924,11 @@
       </c>
       <c r="C981" t="inlineStr">
         <is>
-          <t>비스포크 제트 VS20B956D5G + VR30T85514U</t>
+          <t>비스포크 제트 VS20B957G5C + VR50T95936C</t>
         </is>
       </c>
       <c r="D981" t="n">
-        <v>1669431</v>
+        <v>2735391</v>
       </c>
       <c r="E981" t="n">
         <v>60</v>
@@ -25948,33 +25940,33 @@
     <row r="982">
       <c r="A982" t="inlineStr">
         <is>
-          <t>핸디스틱청소기</t>
+          <t>핸디스틱청소기+로봇청소기</t>
         </is>
       </c>
       <c r="B982" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="C982" t="inlineStr">
         <is>
-          <t>코드제로 A9S AS9300IA</t>
+          <t>비스포크 제트 VS20B956D5E + VR30T85514W</t>
         </is>
       </c>
       <c r="D982" t="n">
-        <v>1075387</v>
+        <v>1682572</v>
       </c>
       <c r="E982" t="n">
         <v>60</v>
       </c>
       <c r="F982" t="n">
-        <v>200</v>
+        <v>220</v>
       </c>
     </row>
     <row r="983">
       <c r="A983" t="inlineStr">
         <is>
-          <t>핸디스틱청소기</t>
+          <t>핸디스틱청소기+로봇청소기</t>
         </is>
       </c>
       <c r="B983" t="inlineStr">
@@ -25984,17 +25976,17 @@
       </c>
       <c r="C983" t="inlineStr">
         <is>
-          <t>제트 VS20T92P7SD</t>
+          <t>비스포크 제트 VS20B956D5G + VR30T85514U</t>
         </is>
       </c>
       <c r="D983" t="n">
-        <v>659970</v>
+        <v>1669431</v>
       </c>
       <c r="E983" t="n">
         <v>60</v>
       </c>
       <c r="F983" t="n">
-        <v>200</v>
+        <v>220</v>
       </c>
     </row>
     <row r="984">
@@ -26010,17 +26002,17 @@
       </c>
       <c r="C984" t="inlineStr">
         <is>
-          <t>코드제로 A9S AT9401IB</t>
+          <t>코드제로 A9S AS9300IA</t>
         </is>
       </c>
       <c r="D984" t="n">
-        <v>1691000</v>
+        <v>1075387</v>
       </c>
       <c r="E984" t="n">
         <v>60</v>
       </c>
       <c r="F984" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
     </row>
     <row r="985">
@@ -26031,22 +26023,22 @@
       </c>
       <c r="B985" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="C985" t="inlineStr">
         <is>
-          <t>코드제로 A9S AT9571IB</t>
+          <t>제트 VS20T92P7SD</t>
         </is>
       </c>
       <c r="D985" t="n">
-        <v>1089000</v>
+        <v>659970</v>
       </c>
       <c r="E985" t="n">
         <v>60</v>
       </c>
       <c r="F985" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
     </row>
     <row r="986">
@@ -26062,11 +26054,11 @@
       </c>
       <c r="C986" t="inlineStr">
         <is>
-          <t>오브제컬렉션 코드제로 A9S AT9471WC</t>
+          <t>코드제로 A9S AT9401IB</t>
         </is>
       </c>
       <c r="D986" t="n">
-        <v>1164400</v>
+        <v>1691000</v>
       </c>
       <c r="E986" t="n">
         <v>60</v>
@@ -26083,22 +26075,22 @@
       </c>
       <c r="B987" t="inlineStr">
         <is>
-          <t>보겔</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="C987" t="inlineStr">
         <is>
-          <t>GNV-C1</t>
+          <t>코드제로 A9S AT9571IB</t>
         </is>
       </c>
       <c r="D987" t="n">
-        <v>79000</v>
+        <v>1089000</v>
       </c>
       <c r="E987" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="F987" t="n">
-        <v>0</v>
+        <v>210</v>
       </c>
     </row>
     <row r="988">
@@ -26114,11 +26106,11 @@
       </c>
       <c r="C988" t="inlineStr">
         <is>
-          <t>오브제컬렉션 코드제로 A9S AS9401WC</t>
+          <t>오브제컬렉션 코드제로 A9S AT9471WC</t>
         </is>
       </c>
       <c r="D988" t="n">
-        <v>1351801</v>
+        <v>1164400</v>
       </c>
       <c r="E988" t="n">
         <v>60</v>
@@ -26135,19 +26127,19 @@
       </c>
       <c r="B989" t="inlineStr">
         <is>
-          <t>지웰</t>
+          <t>보겔</t>
         </is>
       </c>
       <c r="C989" t="inlineStr">
         <is>
-          <t>벤투스 아쿠아 파워</t>
+          <t>GNV-C1</t>
         </is>
       </c>
       <c r="D989" t="n">
-        <v>363120</v>
+        <v>79000</v>
       </c>
       <c r="E989" t="n">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="F989" t="n">
         <v>0</v>
@@ -26166,17 +26158,17 @@
       </c>
       <c r="C990" t="inlineStr">
         <is>
-          <t>코드제로 A9S AT9370BA</t>
+          <t>오브제컬렉션 코드제로 A9S AS9401WC</t>
         </is>
       </c>
       <c r="D990" t="n">
-        <v>1221620</v>
+        <v>1351801</v>
       </c>
       <c r="E990" t="n">
         <v>60</v>
       </c>
       <c r="F990" t="n">
-        <v>200</v>
+        <v>210</v>
       </c>
     </row>
     <row r="991">
@@ -26187,22 +26179,22 @@
       </c>
       <c r="B991" t="inlineStr">
         <is>
-          <t>클래파</t>
+          <t>지웰</t>
         </is>
       </c>
       <c r="C991" t="inlineStr">
         <is>
-          <t>H13</t>
+          <t>벤투스 아쿠아 파워</t>
         </is>
       </c>
       <c r="D991" t="n">
-        <v>119000</v>
+        <v>363120</v>
       </c>
       <c r="E991" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F991" t="n">
-        <v>175</v>
+        <v>0</v>
       </c>
     </row>
     <row r="992">
@@ -26213,19 +26205,19 @@
       </c>
       <c r="B992" t="inlineStr">
         <is>
-          <t>베커</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="C992" t="inlineStr">
         <is>
-          <t>BK8850S</t>
+          <t>코드제로 A9S AT9370BA</t>
         </is>
       </c>
       <c r="D992" t="n">
-        <v>607400</v>
+        <v>1221620</v>
       </c>
       <c r="E992" t="n">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="F992" t="n">
         <v>200</v>
@@ -26234,105 +26226,105 @@
     <row r="993">
       <c r="A993" t="inlineStr">
         <is>
-          <t>핸디스틱청소기+로봇청소기</t>
+          <t>핸디스틱청소기</t>
         </is>
       </c>
       <c r="B993" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>클래파</t>
         </is>
       </c>
       <c r="C993" t="inlineStr">
         <is>
-          <t>제트 VS15A6031N5 + VR50C95A46A</t>
+          <t>H13</t>
         </is>
       </c>
       <c r="D993" t="n">
-        <v>1511990</v>
+        <v>119000</v>
       </c>
       <c r="E993" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F993" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
     </row>
     <row r="994">
       <c r="A994" t="inlineStr">
         <is>
-          <t>핸디스틱청소기+로봇청소기</t>
+          <t>핸디스틱청소기</t>
         </is>
       </c>
       <c r="B994" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>베커</t>
         </is>
       </c>
       <c r="C994" t="inlineStr">
         <is>
-          <t>제트 VS15A6031N5 + VR50C95A46S</t>
+          <t>BK8850S</t>
         </is>
       </c>
       <c r="D994" t="n">
-        <v>1511990</v>
+        <v>607400</v>
       </c>
       <c r="E994" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F994" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
     </row>
     <row r="995">
       <c r="A995" t="inlineStr">
         <is>
-          <t>핸디스틱청소기</t>
+          <t>핸디스틱청소기+로봇청소기</t>
         </is>
       </c>
       <c r="B995" t="inlineStr">
         <is>
-          <t>퍼피유</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="C995" t="inlineStr">
         <is>
-          <t>T12 Mate</t>
+          <t>제트 VS15A6031N5 + VR50C95A46A</t>
         </is>
       </c>
       <c r="D995" t="n">
-        <v>439000</v>
+        <v>1511990</v>
       </c>
       <c r="E995" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="F995" t="n">
-        <v>290</v>
+        <v>150</v>
       </c>
     </row>
     <row r="996">
       <c r="A996" t="inlineStr">
         <is>
-          <t>핸디스틱청소기</t>
+          <t>핸디스틱청소기+로봇청소기</t>
         </is>
       </c>
       <c r="B996" t="inlineStr">
         <is>
-          <t>쓱봇</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="C996" t="inlineStr">
         <is>
-          <t>사뚜오 Future6</t>
+          <t>제트 VS15A6031N5 + VR50C95A46S</t>
         </is>
       </c>
       <c r="D996" t="n">
-        <v>305160</v>
+        <v>1511990</v>
       </c>
       <c r="E996" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F996" t="n">
-        <v>210</v>
+        <v>150</v>
       </c>
     </row>
     <row r="997">
@@ -26343,22 +26335,22 @@
       </c>
       <c r="B997" t="inlineStr">
         <is>
-          <t>샤오미</t>
+          <t>퍼피유</t>
         </is>
       </c>
       <c r="C997" t="inlineStr">
         <is>
-          <t>레드키 W12</t>
+          <t>T12 Mate</t>
         </is>
       </c>
       <c r="D997" t="n">
-        <v>380400</v>
+        <v>439000</v>
       </c>
       <c r="E997" t="n">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="F997" t="n">
-        <v>0</v>
+        <v>290</v>
       </c>
     </row>
     <row r="998">
@@ -26369,22 +26361,22 @@
       </c>
       <c r="B998" t="inlineStr">
         <is>
-          <t>드리미</t>
+          <t>쓱봇</t>
         </is>
       </c>
       <c r="C998" t="inlineStr">
         <is>
-          <t>V12 프로</t>
+          <t>사뚜오 Future6</t>
         </is>
       </c>
       <c r="D998" t="n">
-        <v>572800</v>
+        <v>305160</v>
       </c>
       <c r="E998" t="n">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="F998" t="n">
-        <v>270</v>
+        <v>210</v>
       </c>
     </row>
     <row r="999">
@@ -26395,19 +26387,19 @@
       </c>
       <c r="B999" t="inlineStr">
         <is>
-          <t>플러스마이너스제로</t>
+          <t>샤오미</t>
         </is>
       </c>
       <c r="C999" t="inlineStr">
         <is>
-          <t>F021</t>
+          <t>레드키 W12</t>
         </is>
       </c>
       <c r="D999" t="n">
-        <v>344000</v>
+        <v>380400</v>
       </c>
       <c r="E999" t="n">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="F999" t="n">
         <v>0</v>
@@ -26421,22 +26413,22 @@
       </c>
       <c r="B1000" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>드리미</t>
         </is>
       </c>
       <c r="C1000" t="inlineStr">
         <is>
-          <t>코드제로 A9 AS9170ST</t>
+          <t>V12 프로</t>
         </is>
       </c>
       <c r="D1000" t="n">
-        <v>1650480</v>
+        <v>572800</v>
       </c>
       <c r="E1000" t="n">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="F1000" t="n">
-        <v>140</v>
+        <v>270</v>
       </c>
     </row>
     <row r="1001">
@@ -26447,22 +26439,22 @@
       </c>
       <c r="B1001" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>플러스마이너스제로</t>
         </is>
       </c>
       <c r="C1001" t="inlineStr">
         <is>
-          <t>비스포크 제트 VS20A957G2</t>
+          <t>F021</t>
         </is>
       </c>
       <c r="D1001" t="n">
-        <v>791700</v>
+        <v>344000</v>
       </c>
       <c r="E1001" t="n">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F1001" t="n">
-        <v>210</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1002">
@@ -26478,11 +26470,11 @@
       </c>
       <c r="C1002" t="inlineStr">
         <is>
-          <t>코드제로 A9 AS9100ST</t>
+          <t>코드제로 A9 AS9170ST</t>
         </is>
       </c>
       <c r="D1002" t="n">
-        <v>1558780</v>
+        <v>1650480</v>
       </c>
       <c r="E1002" t="n">
         <v>50</v>
@@ -26499,22 +26491,22 @@
       </c>
       <c r="B1003" t="inlineStr">
         <is>
-          <t>거보아이엔씨</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="C1003" t="inlineStr">
         <is>
-          <t>홈마블 H200</t>
+          <t>비스포크 제트 VS20A957G2</t>
         </is>
       </c>
       <c r="D1003" t="n">
-        <v>141000</v>
+        <v>791700</v>
       </c>
       <c r="E1003" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="F1003" t="n">
-        <v>130</v>
+        <v>210</v>
       </c>
     </row>
     <row r="1004">
@@ -26525,22 +26517,22 @@
       </c>
       <c r="B1004" t="inlineStr">
         <is>
-          <t>미로</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="C1004" t="inlineStr">
         <is>
-          <t>MBV10</t>
+          <t>코드제로 A9 AS9100ST</t>
         </is>
       </c>
       <c r="D1004" t="n">
-        <v>250170</v>
+        <v>1558780</v>
       </c>
       <c r="E1004" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F1004" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
     </row>
     <row r="1005">
@@ -26551,22 +26543,22 @@
       </c>
       <c r="B1005" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>거보아이엔씨</t>
         </is>
       </c>
       <c r="C1005" t="inlineStr">
         <is>
-          <t>제트 VS20T9257SECD</t>
+          <t>홈마블 H200</t>
         </is>
       </c>
       <c r="D1005" t="n">
-        <v>696520</v>
+        <v>141000</v>
       </c>
       <c r="E1005" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="F1005" t="n">
-        <v>200</v>
+        <v>130</v>
       </c>
     </row>
     <row r="1006">
@@ -26577,22 +26569,22 @@
       </c>
       <c r="B1006" t="inlineStr">
         <is>
-          <t>자센</t>
+          <t>미로</t>
         </is>
       </c>
       <c r="C1006" t="inlineStr">
         <is>
-          <t>V17</t>
+          <t>MBV10</t>
         </is>
       </c>
       <c r="D1006" t="n">
-        <v>349000</v>
+        <v>250170</v>
       </c>
       <c r="E1006" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="F1006" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1007">
@@ -26603,22 +26595,22 @@
       </c>
       <c r="B1007" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="C1007" t="inlineStr">
         <is>
-          <t>코드제로 A9S AS9371IKT</t>
+          <t>제트 VS20T9257SECD</t>
         </is>
       </c>
       <c r="D1007" t="n">
-        <v>1077870</v>
+        <v>696520</v>
       </c>
       <c r="E1007" t="n">
         <v>60</v>
       </c>
       <c r="F1007" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
     </row>
     <row r="1008">
@@ -26629,22 +26621,22 @@
       </c>
       <c r="B1008" t="inlineStr">
         <is>
-          <t>보르도</t>
+          <t>자센</t>
         </is>
       </c>
       <c r="C1008" t="inlineStr">
         <is>
-          <t>WVC-9920A</t>
+          <t>V17</t>
         </is>
       </c>
       <c r="D1008" t="n">
-        <v>54230</v>
+        <v>349000</v>
       </c>
       <c r="E1008" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F1008" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="1009">
@@ -26655,22 +26647,22 @@
       </c>
       <c r="B1009" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="C1009" t="inlineStr">
         <is>
-          <t>제트 VS20T9213QACC</t>
+          <t>코드제로 A9S AS9371IKT</t>
         </is>
       </c>
       <c r="D1009" t="n">
-        <v>629000</v>
+        <v>1077870</v>
       </c>
       <c r="E1009" t="n">
         <v>60</v>
       </c>
       <c r="F1009" t="n">
-        <v>200</v>
+        <v>210</v>
       </c>
     </row>
     <row r="1010">
@@ -26681,22 +26673,22 @@
       </c>
       <c r="B1010" t="inlineStr">
         <is>
-          <t>작스제로</t>
+          <t>보르도</t>
         </is>
       </c>
       <c r="C1010" t="inlineStr">
         <is>
-          <t>맥스</t>
+          <t>WVC-9920A</t>
         </is>
       </c>
       <c r="D1010" t="n">
-        <v>278990</v>
+        <v>54230</v>
       </c>
       <c r="E1010" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="F1010" t="n">
-        <v>290</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1011">
@@ -26707,22 +26699,22 @@
       </c>
       <c r="B1011" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="C1011" t="inlineStr">
         <is>
-          <t>코드제로 A9S AS9471BWKT</t>
+          <t>제트 VS20T9213QACC</t>
         </is>
       </c>
       <c r="D1011" t="n">
-        <v>1100080</v>
+        <v>629000</v>
       </c>
       <c r="E1011" t="n">
         <v>60</v>
       </c>
       <c r="F1011" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
     </row>
     <row r="1012">
@@ -26733,22 +26725,22 @@
       </c>
       <c r="B1012" t="inlineStr">
         <is>
-          <t>노뉴</t>
+          <t>작스제로</t>
         </is>
       </c>
       <c r="C1012" t="inlineStr">
         <is>
-          <t>마스터클린 NONEW-VC1000</t>
+          <t>맥스</t>
         </is>
       </c>
       <c r="D1012" t="n">
-        <v>61880</v>
+        <v>278990</v>
       </c>
       <c r="E1012" t="n">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="F1012" t="n">
-        <v>120</v>
+        <v>290</v>
       </c>
     </row>
     <row r="1013">
@@ -26759,22 +26751,22 @@
       </c>
       <c r="B1013" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>노뉴</t>
         </is>
       </c>
       <c r="C1013" t="inlineStr">
         <is>
-          <t>코드제로 A9S AS9571SWKT</t>
+          <t>마스터클린 NONEW-VC1000</t>
         </is>
       </c>
       <c r="D1013" t="n">
-        <v>1010040</v>
+        <v>61880</v>
       </c>
       <c r="E1013" t="n">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="F1013" t="n">
-        <v>210</v>
+        <v>120</v>
       </c>
     </row>
     <row r="1014">
@@ -26785,22 +26777,22 @@
       </c>
       <c r="B1014" t="inlineStr">
         <is>
-          <t>DIBEA</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="C1014" t="inlineStr">
         <is>
-          <t>D19 Pro</t>
+          <t>코드제로 A9S AS9471BWKT</t>
         </is>
       </c>
       <c r="D1014" t="n">
-        <v>134750</v>
+        <v>1100080</v>
       </c>
       <c r="E1014" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="F1014" t="n">
-        <v>120</v>
+        <v>210</v>
       </c>
     </row>
     <row r="1015">
@@ -26811,22 +26803,22 @@
       </c>
       <c r="B1015" t="inlineStr">
         <is>
-          <t>DIBEA</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="C1015" t="inlineStr">
         <is>
-          <t>D19</t>
+          <t>코드제로 A9S AS9571SWKT</t>
         </is>
       </c>
       <c r="D1015" t="n">
-        <v>168500</v>
+        <v>1010040</v>
       </c>
       <c r="E1015" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="F1015" t="n">
-        <v>120</v>
+        <v>210</v>
       </c>
     </row>
     <row r="1016">
@@ -26837,22 +26829,22 @@
       </c>
       <c r="B1016" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>DIBEA</t>
         </is>
       </c>
       <c r="C1016" t="inlineStr">
         <is>
-          <t>코드제로 A9S AS9471SWKT</t>
+          <t>D19 Pro</t>
         </is>
       </c>
       <c r="D1016" t="n">
-        <v>1224170</v>
+        <v>134750</v>
       </c>
       <c r="E1016" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="F1016" t="n">
-        <v>210</v>
+        <v>120</v>
       </c>
     </row>
     <row r="1017">
@@ -26863,22 +26855,22 @@
       </c>
       <c r="B1017" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>DIBEA</t>
         </is>
       </c>
       <c r="C1017" t="inlineStr">
         <is>
-          <t>코드제로 A9S 펫 AS9571BPWKT</t>
+          <t>D19</t>
         </is>
       </c>
       <c r="D1017" t="n">
-        <v>1644100</v>
+        <v>168500</v>
       </c>
       <c r="E1017" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="F1017" t="n">
-        <v>210</v>
+        <v>120</v>
       </c>
     </row>
     <row r="1018">
@@ -26894,11 +26886,11 @@
       </c>
       <c r="C1018" t="inlineStr">
         <is>
-          <t>오브제컬렉션 코드제로 A9S AO9571WGKT</t>
+          <t>코드제로 A9S AS9471SWKT</t>
         </is>
       </c>
       <c r="D1018" t="n">
-        <v>1516000</v>
+        <v>1224170</v>
       </c>
       <c r="E1018" t="n">
         <v>60</v>
@@ -26920,11 +26912,11 @@
       </c>
       <c r="C1019" t="inlineStr">
         <is>
-          <t>오브제컬렉션 코드제로 A9S AO9571GWKT</t>
+          <t>코드제로 A9S 펫 AS9571BPWKT</t>
         </is>
       </c>
       <c r="D1019" t="n">
-        <v>1500070</v>
+        <v>1644100</v>
       </c>
       <c r="E1019" t="n">
         <v>60</v>
@@ -26941,22 +26933,22 @@
       </c>
       <c r="B1020" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="C1020" t="inlineStr">
         <is>
-          <t>제트 VS20T9213QD</t>
+          <t>오브제컬렉션 코드제로 A9S AO9571WGKT</t>
         </is>
       </c>
       <c r="D1020" t="n">
-        <v>440300</v>
+        <v>1516000</v>
       </c>
       <c r="E1020" t="n">
         <v>60</v>
       </c>
       <c r="F1020" t="n">
-        <v>200</v>
+        <v>210</v>
       </c>
     </row>
     <row r="1021">
@@ -26967,22 +26959,22 @@
       </c>
       <c r="B1021" t="inlineStr">
         <is>
-          <t>지웰</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="C1021" t="inlineStr">
         <is>
-          <t>티네코 FLOOR ONE S3</t>
+          <t>오브제컬렉션 코드제로 A9S AO9571GWKT</t>
         </is>
       </c>
       <c r="D1021" t="n">
-        <v>831300</v>
+        <v>1500070</v>
       </c>
       <c r="E1021" t="n">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="F1021" t="n">
-        <v>0</v>
+        <v>210</v>
       </c>
     </row>
     <row r="1022">
@@ -26993,22 +26985,22 @@
       </c>
       <c r="B1022" t="inlineStr">
         <is>
-          <t>라이녹스</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="C1022" t="inlineStr">
         <is>
-          <t>원큐 RXBC-C200</t>
+          <t>제트 VS20T9213QD</t>
         </is>
       </c>
       <c r="D1022" t="n">
-        <v>174830</v>
+        <v>440300</v>
       </c>
       <c r="E1022" t="n">
-        <v>240</v>
+        <v>60</v>
       </c>
       <c r="F1022" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
     </row>
     <row r="1023">
@@ -27019,22 +27011,22 @@
       </c>
       <c r="B1023" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>지웰</t>
         </is>
       </c>
       <c r="C1023" t="inlineStr">
         <is>
-          <t>제트 VS20T9222K2CC</t>
+          <t>티네코 FLOOR ONE S3</t>
         </is>
       </c>
       <c r="D1023" t="n">
-        <v>846770</v>
+        <v>831300</v>
       </c>
       <c r="E1023" t="n">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="F1023" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1024">
@@ -27045,19 +27037,19 @@
       </c>
       <c r="B1024" t="inlineStr">
         <is>
-          <t>네오비즈</t>
+          <t>라이녹스</t>
         </is>
       </c>
       <c r="C1024" t="inlineStr">
         <is>
-          <t>미라스 MS-500VC</t>
+          <t>원큐 RXBC-C200</t>
         </is>
       </c>
       <c r="D1024" t="n">
-        <v>210320</v>
+        <v>174830</v>
       </c>
       <c r="E1024" t="n">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="F1024" t="n">
         <v>0</v>
@@ -27071,22 +27063,22 @@
       </c>
       <c r="B1025" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="C1025" t="inlineStr">
         <is>
-          <t>코드제로 이지스틱 A749IA</t>
+          <t>제트 VS20T9222K2CC</t>
         </is>
       </c>
       <c r="D1025" t="n">
-        <v>1000000</v>
+        <v>846770</v>
       </c>
       <c r="E1025" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="F1025" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
     </row>
     <row r="1026">
@@ -27097,19 +27089,19 @@
       </c>
       <c r="B1026" t="inlineStr">
         <is>
-          <t>일렉트로룩스</t>
+          <t>네오비즈</t>
         </is>
       </c>
       <c r="C1026" t="inlineStr">
         <is>
-          <t>Well Q7 Pet WQ71-2PSSF</t>
+          <t>미라스 MS-500VC</t>
         </is>
       </c>
       <c r="D1026" t="n">
-        <v>392620</v>
+        <v>239000</v>
       </c>
       <c r="E1026" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F1026" t="n">
         <v>0</v>
@@ -27123,22 +27115,22 @@
       </c>
       <c r="B1027" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="C1027" t="inlineStr">
         <is>
-          <t>제트 VS15R8547Q1CW</t>
+          <t>코드제로 이지스틱 A749IA</t>
         </is>
       </c>
       <c r="D1027" t="n">
-        <v>1299000</v>
+        <v>1000000</v>
       </c>
       <c r="E1027" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F1027" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1028">
@@ -27149,22 +27141,22 @@
       </c>
       <c r="B1028" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>일렉트로룩스</t>
         </is>
       </c>
       <c r="C1028" t="inlineStr">
         <is>
-          <t>제트 VS20T9218QD</t>
+          <t>Well Q7 Pet WQ71-2PSSF</t>
         </is>
       </c>
       <c r="D1028" t="n">
-        <v>549920</v>
+        <v>392620</v>
       </c>
       <c r="E1028" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F1028" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1029">
@@ -27175,22 +27167,22 @@
       </c>
       <c r="B1029" t="inlineStr">
         <is>
-          <t>지웰</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="C1029" t="inlineStr">
         <is>
-          <t>티네코 iFloor3</t>
+          <t>제트 VS15R8547Q1CW</t>
         </is>
       </c>
       <c r="D1029" t="n">
-        <v>848300</v>
+        <v>1299000</v>
       </c>
       <c r="E1029" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F1029" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
     </row>
     <row r="1030">
@@ -27206,11 +27198,11 @@
       </c>
       <c r="C1030" t="inlineStr">
         <is>
-          <t>제트 VS20T9257SDCC</t>
+          <t>제트 VS20T9218QD</t>
         </is>
       </c>
       <c r="D1030" t="n">
-        <v>1719900</v>
+        <v>549920</v>
       </c>
       <c r="E1030" t="n">
         <v>60</v>
@@ -27227,22 +27219,22 @@
       </c>
       <c r="B1031" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>지웰</t>
         </is>
       </c>
       <c r="C1031" t="inlineStr">
         <is>
-          <t>제트 VS15R8543Q4CW</t>
+          <t>티네코 iFloor3</t>
         </is>
       </c>
       <c r="D1031" t="n">
-        <v>544380</v>
+        <v>848300</v>
       </c>
       <c r="E1031" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F1031" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1032">
@@ -27253,22 +27245,22 @@
       </c>
       <c r="B1032" t="inlineStr">
         <is>
-          <t>샤오미</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="C1032" t="inlineStr">
         <is>
-          <t>지미 JV85 프로</t>
+          <t>제트 VS20T9257SDCC</t>
         </is>
       </c>
       <c r="D1032" t="n">
-        <v>272990</v>
+        <v>1719900</v>
       </c>
       <c r="E1032" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F1032" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
     </row>
     <row r="1033">
@@ -27284,17 +27276,17 @@
       </c>
       <c r="C1033" t="inlineStr">
         <is>
-          <t>제트 VS20T9213QDCC</t>
+          <t>제트 VS15R8543Q4CW</t>
         </is>
       </c>
       <c r="D1033" t="n">
-        <v>1200000</v>
+        <v>544380</v>
       </c>
       <c r="E1033" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="F1033" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
     </row>
     <row r="1034">
@@ -27305,22 +27297,22 @@
       </c>
       <c r="B1034" t="inlineStr">
         <is>
-          <t>트리플블랙</t>
+          <t>샤오미</t>
         </is>
       </c>
       <c r="C1034" t="inlineStr">
         <is>
-          <t>Z PLUS</t>
+          <t>지미 JV85 프로</t>
         </is>
       </c>
       <c r="D1034" t="n">
-        <v>104800</v>
+        <v>272990</v>
       </c>
       <c r="E1034" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="F1034" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
     </row>
     <row r="1035">
@@ -27336,17 +27328,17 @@
       </c>
       <c r="C1035" t="inlineStr">
         <is>
-          <t>제트 VS15R8548Q5CW</t>
+          <t>제트 VS20T9213QDCC</t>
         </is>
       </c>
       <c r="D1035" t="n">
-        <v>1000000</v>
+        <v>1200000</v>
       </c>
       <c r="E1035" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="F1035" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
     </row>
     <row r="1036">
@@ -27357,22 +27349,22 @@
       </c>
       <c r="B1036" t="inlineStr">
         <is>
-          <t>르젠</t>
+          <t>트리플블랙</t>
         </is>
       </c>
       <c r="C1036" t="inlineStr">
         <is>
-          <t>LZVC-L7300</t>
+          <t>Z PLUS</t>
         </is>
       </c>
       <c r="D1036" t="n">
-        <v>159000</v>
+        <v>104800</v>
       </c>
       <c r="E1036" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F1036" t="n">
-        <v>220</v>
+        <v>150</v>
       </c>
     </row>
     <row r="1037">
@@ -27383,22 +27375,22 @@
       </c>
       <c r="B1037" t="inlineStr">
         <is>
-          <t>르젠</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="C1037" t="inlineStr">
         <is>
-          <t>LZVC-L7400</t>
+          <t>제트 VS15R8548Q5CW</t>
         </is>
       </c>
       <c r="D1037" t="n">
-        <v>170000</v>
+        <v>1000000</v>
       </c>
       <c r="E1037" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F1037" t="n">
-        <v>220</v>
+        <v>150</v>
       </c>
     </row>
     <row r="1038">
@@ -27409,22 +27401,22 @@
       </c>
       <c r="B1038" t="inlineStr">
         <is>
-          <t>하우스웰</t>
+          <t>르젠</t>
         </is>
       </c>
       <c r="C1038" t="inlineStr">
         <is>
-          <t>GTK-BLDC2V</t>
+          <t>LZVC-L7300</t>
         </is>
       </c>
       <c r="D1038" t="n">
-        <v>189110</v>
+        <v>159000</v>
       </c>
       <c r="E1038" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F1038" t="n">
-        <v>180</v>
+        <v>220</v>
       </c>
     </row>
     <row r="1039">
@@ -27435,22 +27427,22 @@
       </c>
       <c r="B1039" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>르젠</t>
         </is>
       </c>
       <c r="C1039" t="inlineStr">
         <is>
-          <t>제트 VS20T9253QDCS</t>
+          <t>LZVC-L7400</t>
         </is>
       </c>
       <c r="D1039" t="n">
-        <v>681000</v>
+        <v>170000</v>
       </c>
       <c r="E1039" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F1039" t="n">
-        <v>200</v>
+        <v>220</v>
       </c>
     </row>
     <row r="1040">
@@ -27466,17 +27458,17 @@
       </c>
       <c r="C1040" t="inlineStr">
         <is>
-          <t>GTK-DC22W</t>
+          <t>GTK-BLDC2V</t>
         </is>
       </c>
       <c r="D1040" t="n">
-        <v>95000</v>
+        <v>189110</v>
       </c>
       <c r="E1040" t="n">
         <v>30</v>
       </c>
       <c r="F1040" t="n">
-        <v>110</v>
+        <v>180</v>
       </c>
     </row>
     <row r="1041">
@@ -27487,22 +27479,22 @@
       </c>
       <c r="B1041" t="inlineStr">
         <is>
-          <t>르젠</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="C1041" t="inlineStr">
         <is>
-          <t>LZVC-L7900</t>
+          <t>제트 VS20T9253QDCS</t>
         </is>
       </c>
       <c r="D1041" t="n">
-        <v>158000</v>
+        <v>681000</v>
       </c>
       <c r="E1041" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F1041" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
     </row>
     <row r="1042">
@@ -27513,22 +27505,22 @@
       </c>
       <c r="B1042" t="inlineStr">
         <is>
-          <t>보랄</t>
+          <t>하우스웰</t>
         </is>
       </c>
       <c r="C1042" t="inlineStr">
         <is>
-          <t>BR-XL715CV</t>
+          <t>GTK-DC22W</t>
         </is>
       </c>
       <c r="D1042" t="n">
-        <v>517000</v>
+        <v>95000</v>
       </c>
       <c r="E1042" t="n">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="F1042" t="n">
-        <v>200</v>
+        <v>110</v>
       </c>
     </row>
     <row r="1043">
@@ -27539,22 +27531,22 @@
       </c>
       <c r="B1043" t="inlineStr">
         <is>
-          <t>딥센</t>
+          <t>르젠</t>
         </is>
       </c>
       <c r="C1043" t="inlineStr">
         <is>
-          <t>S5</t>
+          <t>LZVC-L7900</t>
         </is>
       </c>
       <c r="D1043" t="n">
-        <v>198900</v>
+        <v>158000</v>
       </c>
       <c r="E1043" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="F1043" t="n">
-        <v>0</v>
+        <v>220</v>
       </c>
     </row>
     <row r="1044">
@@ -27565,22 +27557,22 @@
       </c>
       <c r="B1044" t="inlineStr">
         <is>
-          <t>앱코</t>
+          <t>보랄</t>
         </is>
       </c>
       <c r="C1044" t="inlineStr">
         <is>
-          <t>오엘라 VC02</t>
+          <t>BR-XL715CV</t>
         </is>
       </c>
       <c r="D1044" t="n">
-        <v>179000</v>
+        <v>517000</v>
       </c>
       <c r="E1044" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F1044" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
     </row>
     <row r="1045">
@@ -27591,22 +27583,22 @@
       </c>
       <c r="B1045" t="inlineStr">
         <is>
-          <t>블랙앤데커</t>
+          <t>딥센</t>
         </is>
       </c>
       <c r="C1045" t="inlineStr">
         <is>
-          <t>TBSV2020GS2B</t>
+          <t>S5</t>
         </is>
       </c>
       <c r="D1045" t="n">
-        <v>209000</v>
+        <v>198900</v>
       </c>
       <c r="E1045" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="F1045" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1046">
@@ -27617,22 +27609,22 @@
       </c>
       <c r="B1046" t="inlineStr">
         <is>
-          <t>파나소닉</t>
+          <t>앱코</t>
         </is>
       </c>
       <c r="C1046" t="inlineStr">
         <is>
-          <t>MC-SD787</t>
+          <t>오엘라 VC02</t>
         </is>
       </c>
       <c r="D1046" t="n">
-        <v>527000</v>
+        <v>179000</v>
       </c>
       <c r="E1046" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F1046" t="n">
-        <v>223</v>
+        <v>210</v>
       </c>
     </row>
     <row r="1047">
@@ -27643,22 +27635,22 @@
       </c>
       <c r="B1047" t="inlineStr">
         <is>
-          <t>루베크</t>
+          <t>블랙앤데커</t>
         </is>
       </c>
       <c r="C1047" t="inlineStr">
         <is>
-          <t>RU-700K</t>
+          <t>TBSV2020GS2B</t>
         </is>
       </c>
       <c r="D1047" t="n">
-        <v>103890</v>
+        <v>209000</v>
       </c>
       <c r="E1047" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="F1047" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="1048">
@@ -27669,22 +27661,22 @@
       </c>
       <c r="B1048" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>파나소닉</t>
         </is>
       </c>
       <c r="C1048" t="inlineStr">
         <is>
-          <t>제트 VS20T9213QDCSP</t>
+          <t>MC-SD787</t>
         </is>
       </c>
       <c r="D1048" t="n">
-        <v>853760</v>
+        <v>542700</v>
       </c>
       <c r="E1048" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="F1048" t="n">
-        <v>200</v>
+        <v>223</v>
       </c>
     </row>
     <row r="1049">
@@ -27695,22 +27687,22 @@
       </c>
       <c r="B1049" t="inlineStr">
         <is>
-          <t>캐치웰</t>
+          <t>루베크</t>
         </is>
       </c>
       <c r="C1049" t="inlineStr">
         <is>
-          <t>미니제트</t>
+          <t>RU-700K</t>
         </is>
       </c>
       <c r="D1049" t="n">
-        <v>127470</v>
+        <v>103890</v>
       </c>
       <c r="E1049" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F1049" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1050">
@@ -27721,22 +27713,22 @@
       </c>
       <c r="B1050" t="inlineStr">
         <is>
-          <t>스팔라</t>
+          <t>캐치웰</t>
         </is>
       </c>
       <c r="C1050" t="inlineStr">
         <is>
-          <t>DV-8850DCW</t>
+          <t>미니제트</t>
         </is>
       </c>
       <c r="D1050" t="n">
-        <v>329000</v>
+        <v>127470</v>
       </c>
       <c r="E1050" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F1050" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
     </row>
     <row r="1051">
@@ -27747,22 +27739,22 @@
       </c>
       <c r="B1051" t="inlineStr">
         <is>
-          <t>블랙앤데커</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="C1051" t="inlineStr">
         <is>
-          <t>BSV2020PS</t>
+          <t>제트 VS20T9213QDCSP</t>
         </is>
       </c>
       <c r="D1051" t="n">
-        <v>192000</v>
+        <v>853760</v>
       </c>
       <c r="E1051" t="n">
         <v>60</v>
       </c>
       <c r="F1051" t="n">
-        <v>40</v>
+        <v>200</v>
       </c>
     </row>
     <row r="1052">
@@ -27773,22 +27765,22 @@
       </c>
       <c r="B1052" t="inlineStr">
         <is>
-          <t>이스타</t>
+          <t>스팔라</t>
         </is>
       </c>
       <c r="C1052" t="inlineStr">
         <is>
-          <t>ES-MVC2000</t>
+          <t>DV-8850DCW</t>
         </is>
       </c>
       <c r="D1052" t="n">
-        <v>550000</v>
+        <v>329000</v>
       </c>
       <c r="E1052" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F1052" t="n">
-        <v>120</v>
+        <v>250</v>
       </c>
     </row>
     <row r="1053">
@@ -27799,22 +27791,22 @@
       </c>
       <c r="B1053" t="inlineStr">
         <is>
-          <t>후버</t>
+          <t>블랙앤데커</t>
         </is>
       </c>
       <c r="C1053" t="inlineStr">
         <is>
-          <t>블레이드 맥스 HSV-OPWBPM-KA</t>
+          <t>BSV2020PS</t>
         </is>
       </c>
       <c r="D1053" t="n">
-        <v>398000</v>
+        <v>192000</v>
       </c>
       <c r="E1053" t="n">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="F1053" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="1054">
@@ -27825,22 +27817,22 @@
       </c>
       <c r="B1054" t="inlineStr">
         <is>
-          <t>후버</t>
+          <t>이스타</t>
         </is>
       </c>
       <c r="C1054" t="inlineStr">
         <is>
-          <t>블레이드 플러스 HSV-OPWBP-KA</t>
+          <t>ES-MVC2000</t>
         </is>
       </c>
       <c r="D1054" t="n">
-        <v>257820</v>
+        <v>550000</v>
       </c>
       <c r="E1054" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="F1054" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
     </row>
     <row r="1055">
@@ -27851,22 +27843,22 @@
       </c>
       <c r="B1055" t="inlineStr">
         <is>
-          <t>신일전자</t>
+          <t>후버</t>
         </is>
       </c>
       <c r="C1055" t="inlineStr">
         <is>
-          <t>SVC-R220UB</t>
+          <t>블레이드 맥스 HSV-OPWBPM-KA</t>
         </is>
       </c>
       <c r="D1055" t="n">
-        <v>179900</v>
+        <v>398000</v>
       </c>
       <c r="E1055" t="n">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="F1055" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1056">
@@ -27877,22 +27869,22 @@
       </c>
       <c r="B1056" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>후버</t>
         </is>
       </c>
       <c r="C1056" t="inlineStr">
         <is>
-          <t>제트 VS20T9213QDCSW</t>
+          <t>블레이드 플러스 HSV-OPWBP-KA</t>
         </is>
       </c>
       <c r="D1056" t="n">
-        <v>869000</v>
+        <v>257820</v>
       </c>
       <c r="E1056" t="n">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="F1056" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1057">
@@ -27903,22 +27895,22 @@
       </c>
       <c r="B1057" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>신일전자</t>
         </is>
       </c>
       <c r="C1057" t="inlineStr">
         <is>
-          <t>제트 VS15T7037P1</t>
+          <t>SVC-R220UB</t>
         </is>
       </c>
       <c r="D1057" t="n">
-        <v>735900</v>
+        <v>179900</v>
       </c>
       <c r="E1057" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F1057" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
     </row>
     <row r="1058">
@@ -27929,22 +27921,22 @@
       </c>
       <c r="B1058" t="inlineStr">
         <is>
-          <t>파나소닉</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="C1058" t="inlineStr">
         <is>
-          <t>MC-WDD91</t>
+          <t>제트 VS20T9213QDCSW</t>
         </is>
       </c>
       <c r="D1058" t="n">
-        <v>179000</v>
+        <v>869000</v>
       </c>
       <c r="E1058" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="F1058" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
     </row>
     <row r="1059">
@@ -27960,17 +27952,17 @@
       </c>
       <c r="C1059" t="inlineStr">
         <is>
-          <t>제트 VS20T9257SE</t>
+          <t>제트 VS15T7037P1</t>
         </is>
       </c>
       <c r="D1059" t="n">
-        <v>1183600</v>
+        <v>735900</v>
       </c>
       <c r="E1059" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="F1059" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
     </row>
     <row r="1060">
@@ -27981,22 +27973,22 @@
       </c>
       <c r="B1060" t="inlineStr">
         <is>
-          <t>짐머만</t>
+          <t>파나소닉</t>
         </is>
       </c>
       <c r="C1060" t="inlineStr">
         <is>
-          <t>ZMC-1902WL</t>
+          <t>MC-WDD91</t>
         </is>
       </c>
       <c r="D1060" t="n">
-        <v>83600</v>
+        <v>179000</v>
       </c>
       <c r="E1060" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F1060" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="1061">
@@ -28007,22 +27999,22 @@
       </c>
       <c r="B1061" t="inlineStr">
         <is>
-          <t>짐머만</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="C1061" t="inlineStr">
         <is>
-          <t>ZMC-1991</t>
+          <t>제트 VS20T9257SE</t>
         </is>
       </c>
       <c r="D1061" t="n">
-        <v>82700</v>
+        <v>1183600</v>
       </c>
       <c r="E1061" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="F1061" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
     </row>
     <row r="1062">
@@ -28033,22 +28025,22 @@
       </c>
       <c r="B1062" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>짐머만</t>
         </is>
       </c>
       <c r="C1062" t="inlineStr">
         <is>
-          <t>제트 VS20T9222K2</t>
+          <t>ZMC-1902WL</t>
         </is>
       </c>
       <c r="D1062" t="n">
-        <v>1323400</v>
+        <v>83580</v>
       </c>
       <c r="E1062" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="F1062" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1063">
@@ -28064,11 +28056,11 @@
       </c>
       <c r="C1063" t="inlineStr">
         <is>
-          <t>제트 VS20T9257SECS</t>
+          <t>제트 VS20T9222K2</t>
         </is>
       </c>
       <c r="D1063" t="n">
-        <v>1384300</v>
+        <v>1323400</v>
       </c>
       <c r="E1063" t="n">
         <v>60</v>
@@ -28085,22 +28077,22 @@
       </c>
       <c r="B1064" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>짐머만</t>
         </is>
       </c>
       <c r="C1064" t="inlineStr">
         <is>
-          <t>제트 VS20T9257SDCS</t>
+          <t>ZMC-1991</t>
         </is>
       </c>
       <c r="D1064" t="n">
-        <v>1168880</v>
+        <v>82700</v>
       </c>
       <c r="E1064" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="F1064" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1065">
@@ -28116,11 +28108,11 @@
       </c>
       <c r="C1065" t="inlineStr">
         <is>
-          <t>제트 VS20T9259SECS</t>
+          <t>제트 VS20T9257SECS</t>
         </is>
       </c>
       <c r="D1065" t="n">
-        <v>1879530</v>
+        <v>1384300</v>
       </c>
       <c r="E1065" t="n">
         <v>60</v>
@@ -28142,11 +28134,11 @@
       </c>
       <c r="C1066" t="inlineStr">
         <is>
-          <t>제트 VS20T9257SD</t>
+          <t>제트 VS20T9257SDCS</t>
         </is>
       </c>
       <c r="D1066" t="n">
-        <v>650060</v>
+        <v>1168880</v>
       </c>
       <c r="E1066" t="n">
         <v>60</v>
@@ -28163,22 +28155,22 @@
       </c>
       <c r="B1067" t="inlineStr">
         <is>
-          <t>썬리빙</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="C1067" t="inlineStr">
         <is>
-          <t>TSD-2020</t>
+          <t>제트 VS20T9259SECS</t>
         </is>
       </c>
       <c r="D1067" t="n">
-        <v>198930</v>
+        <v>1879530</v>
       </c>
       <c r="E1067" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="F1067" t="n">
-        <v>140</v>
+        <v>200</v>
       </c>
     </row>
     <row r="1068">
@@ -28189,22 +28181,22 @@
       </c>
       <c r="B1068" t="inlineStr">
         <is>
-          <t>매직쉐프</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="C1068" t="inlineStr">
         <is>
-          <t>MEVC-K506B</t>
+          <t>제트 VS20T9257SD</t>
         </is>
       </c>
       <c r="D1068" t="n">
-        <v>219000</v>
+        <v>650060</v>
       </c>
       <c r="E1068" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F1068" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
     </row>
     <row r="1069">
@@ -28215,22 +28207,22 @@
       </c>
       <c r="B1069" t="inlineStr">
         <is>
-          <t>시노링크</t>
+          <t>썬리빙</t>
         </is>
       </c>
       <c r="C1069" t="inlineStr">
         <is>
-          <t>DM-V09</t>
+          <t>TSD-2020</t>
         </is>
       </c>
       <c r="D1069" t="n">
-        <v>77440</v>
+        <v>198930</v>
       </c>
       <c r="E1069" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F1069" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
     </row>
     <row r="1070">
@@ -28241,22 +28233,22 @@
       </c>
       <c r="B1070" t="inlineStr">
         <is>
-          <t>벤하임코리아</t>
+          <t>매직쉐프</t>
         </is>
       </c>
       <c r="C1070" t="inlineStr">
         <is>
-          <t>V20-BLDC</t>
+          <t>MEVC-K506B</t>
         </is>
       </c>
       <c r="D1070" t="n">
-        <v>375410</v>
+        <v>219000</v>
       </c>
       <c r="E1070" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="F1070" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1071">
@@ -28267,22 +28259,22 @@
       </c>
       <c r="B1071" t="inlineStr">
         <is>
-          <t>휴스톰</t>
+          <t>시노링크</t>
         </is>
       </c>
       <c r="C1071" t="inlineStr">
         <is>
-          <t>무선 싸이클론 HV-3000</t>
+          <t>DM-V09</t>
         </is>
       </c>
       <c r="D1071" t="n">
-        <v>137450</v>
+        <v>77440</v>
       </c>
       <c r="E1071" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F1071" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
     </row>
     <row r="1072">
@@ -28293,19 +28285,19 @@
       </c>
       <c r="B1072" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>벤하임코리아</t>
         </is>
       </c>
       <c r="C1072" t="inlineStr">
         <is>
-          <t>제트 VS20T9222K2CS</t>
+          <t>V20-BLDC</t>
         </is>
       </c>
       <c r="D1072" t="n">
-        <v>1419840</v>
+        <v>375410</v>
       </c>
       <c r="E1072" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="F1072" t="n">
         <v>200</v>
@@ -28319,19 +28311,19 @@
       </c>
       <c r="B1073" t="inlineStr">
         <is>
-          <t>스위스밀리터리</t>
+          <t>휴스톰</t>
         </is>
       </c>
       <c r="C1073" t="inlineStr">
         <is>
-          <t>듀얼엑스 OBA-18000</t>
+          <t>무선 싸이클론 HV-3000</t>
         </is>
       </c>
       <c r="D1073" t="n">
-        <v>406800</v>
+        <v>137450</v>
       </c>
       <c r="E1073" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F1073" t="n">
         <v>0</v>
@@ -28350,11 +28342,11 @@
       </c>
       <c r="C1074" t="inlineStr">
         <is>
-          <t>제트 VS20T9248SB</t>
+          <t>제트 VS20T9222K2CS</t>
         </is>
       </c>
       <c r="D1074" t="n">
-        <v>998000</v>
+        <v>1419840</v>
       </c>
       <c r="E1074" t="n">
         <v>60</v>
@@ -28371,22 +28363,22 @@
       </c>
       <c r="B1075" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>스위스밀리터리</t>
         </is>
       </c>
       <c r="C1075" t="inlineStr">
         <is>
-          <t>코드제로 A9S A9400</t>
+          <t>듀얼엑스 OBA-18000</t>
         </is>
       </c>
       <c r="D1075" t="n">
-        <v>2200000</v>
+        <v>406800</v>
       </c>
       <c r="E1075" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="F1075" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1076">
@@ -28397,22 +28389,22 @@
       </c>
       <c r="B1076" t="inlineStr">
         <is>
-          <t>스위스밀리터리</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="C1076" t="inlineStr">
         <is>
-          <t>파워스톰 BLDC SMA-BL16000</t>
+          <t>제트 VS20T9248SB</t>
         </is>
       </c>
       <c r="D1076" t="n">
-        <v>271000</v>
+        <v>998000</v>
       </c>
       <c r="E1076" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="F1076" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
     </row>
     <row r="1077">
@@ -28423,16 +28415,16 @@
       </c>
       <c r="B1077" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="C1077" t="inlineStr">
         <is>
-          <t>제트 VS20R9044SBCS</t>
+          <t>코드제로 A9S A9400</t>
         </is>
       </c>
       <c r="D1077" t="n">
-        <v>950000</v>
+        <v>2200000</v>
       </c>
       <c r="E1077" t="n">
         <v>60</v>
@@ -28449,19 +28441,19 @@
       </c>
       <c r="B1078" t="inlineStr">
         <is>
-          <t>미로</t>
+          <t>스위스밀리터리</t>
         </is>
       </c>
       <c r="C1078" t="inlineStr">
         <is>
-          <t>더 플라 MPW10</t>
+          <t>파워스톰 BLDC SMA-BL16000</t>
         </is>
       </c>
       <c r="D1078" t="n">
-        <v>399000</v>
+        <v>271000</v>
       </c>
       <c r="E1078" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="F1078" t="n">
         <v>0</v>
@@ -28480,11 +28472,11 @@
       </c>
       <c r="C1079" t="inlineStr">
         <is>
-          <t>제트 VS20T9279S6CS</t>
+          <t>제트 VS20R9044SBCS</t>
         </is>
       </c>
       <c r="D1079" t="n">
-        <v>732850</v>
+        <v>950000</v>
       </c>
       <c r="E1079" t="n">
         <v>60</v>
@@ -28501,22 +28493,22 @@
       </c>
       <c r="B1080" t="inlineStr">
         <is>
-          <t>클린슨</t>
+          <t>미로</t>
         </is>
       </c>
       <c r="C1080" t="inlineStr">
         <is>
-          <t>3in1 무선청소기</t>
+          <t>더 플라 MPW10</t>
         </is>
       </c>
       <c r="D1080" t="n">
-        <v>257000</v>
+        <v>399000</v>
       </c>
       <c r="E1080" t="n">
-        <v>35</v>
+        <v>100</v>
       </c>
       <c r="F1080" t="n">
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1081">
@@ -28532,11 +28524,11 @@
       </c>
       <c r="C1081" t="inlineStr">
         <is>
-          <t>제트 VS20T9279S6</t>
+          <t>제트 VS20T9279S6CS</t>
         </is>
       </c>
       <c r="D1081" t="n">
-        <v>1082060</v>
+        <v>732850</v>
       </c>
       <c r="E1081" t="n">
         <v>60</v>
@@ -28553,22 +28545,22 @@
       </c>
       <c r="B1082" t="inlineStr">
         <is>
-          <t>마이프랜드</t>
+          <t>클린슨</t>
         </is>
       </c>
       <c r="C1082" t="inlineStr">
         <is>
-          <t>MF-7800VC</t>
+          <t>3in1 무선청소기</t>
         </is>
       </c>
       <c r="D1082" t="n">
-        <v>75040</v>
+        <v>257000</v>
       </c>
       <c r="E1082" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F1082" t="n">
-        <v>80</v>
+        <v>180</v>
       </c>
     </row>
     <row r="1083">
@@ -28579,22 +28571,22 @@
       </c>
       <c r="B1083" t="inlineStr">
         <is>
-          <t>홈니즈</t>
+          <t>마이프랜드</t>
         </is>
       </c>
       <c r="C1083" t="inlineStr">
         <is>
-          <t>저스트원 SN-XR330V</t>
+          <t>MF-7800VC</t>
         </is>
       </c>
       <c r="D1083" t="n">
-        <v>65900</v>
+        <v>75040</v>
       </c>
       <c r="E1083" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F1083" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="1084">
@@ -28610,11 +28602,11 @@
       </c>
       <c r="C1084" t="inlineStr">
         <is>
-          <t>제트 VS20T9278S3</t>
+          <t>제트 VS20T9279S6</t>
         </is>
       </c>
       <c r="D1084" t="n">
-        <v>920690</v>
+        <v>1082060</v>
       </c>
       <c r="E1084" t="n">
         <v>60</v>
@@ -28631,22 +28623,22 @@
       </c>
       <c r="B1085" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>홈니즈</t>
         </is>
       </c>
       <c r="C1085" t="inlineStr">
         <is>
-          <t>제트 VS20T9277Q3</t>
+          <t>저스트원 SN-XR330V</t>
         </is>
       </c>
       <c r="D1085" t="n">
-        <v>1200000</v>
+        <v>65880</v>
       </c>
       <c r="E1085" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="F1085" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1086">
@@ -28657,22 +28649,22 @@
       </c>
       <c r="B1086" t="inlineStr">
         <is>
-          <t>휴스톰</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="C1086" t="inlineStr">
         <is>
-          <t>HV-5100W</t>
+          <t>제트 VS20T9278S3</t>
         </is>
       </c>
       <c r="D1086" t="n">
-        <v>167300</v>
+        <v>920690</v>
       </c>
       <c r="E1086" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="F1086" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
     </row>
     <row r="1087">
@@ -28688,17 +28680,17 @@
       </c>
       <c r="C1087" t="inlineStr">
         <is>
-          <t>제트 VS15R8548S5CWB</t>
+          <t>제트 VS20T9277Q3</t>
         </is>
       </c>
       <c r="D1087" t="n">
-        <v>991610</v>
+        <v>1200000</v>
       </c>
       <c r="E1087" t="n">
         <v>60</v>
       </c>
       <c r="F1087" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
     </row>
     <row r="1088">
@@ -28709,19 +28701,19 @@
       </c>
       <c r="B1088" t="inlineStr">
         <is>
-          <t>지니어스</t>
+          <t>휴스톰</t>
         </is>
       </c>
       <c r="C1088" t="inlineStr">
         <is>
-          <t>인빅터스 X7</t>
+          <t>HV-5100W</t>
         </is>
       </c>
       <c r="D1088" t="n">
-        <v>459820</v>
+        <v>167300</v>
       </c>
       <c r="E1088" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F1088" t="n">
         <v>0</v>
@@ -28735,22 +28727,22 @@
       </c>
       <c r="B1089" t="inlineStr">
         <is>
-          <t>본쿠치나</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="C1089" t="inlineStr">
         <is>
-          <t>CUCINA-16</t>
+          <t>제트 VS15R8548S5CWB</t>
         </is>
       </c>
       <c r="D1089" t="n">
-        <v>82330</v>
+        <v>991610</v>
       </c>
       <c r="E1089" t="n">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="F1089" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
     </row>
     <row r="1090">
@@ -28787,22 +28779,22 @@
       </c>
       <c r="B1091" t="inlineStr">
         <is>
-          <t>컴포트</t>
+          <t>본쿠치나</t>
         </is>
       </c>
       <c r="C1091" t="inlineStr">
         <is>
-          <t>콰트로 BVC-250G</t>
+          <t>CUCINA-16</t>
         </is>
       </c>
       <c r="D1091" t="n">
-        <v>128900</v>
+        <v>82330</v>
       </c>
       <c r="E1091" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F1091" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
     </row>
     <row r="1092">
@@ -28813,19 +28805,19 @@
       </c>
       <c r="B1092" t="inlineStr">
         <is>
-          <t>제이닉스</t>
+          <t>지니어스</t>
         </is>
       </c>
       <c r="C1092" t="inlineStr">
         <is>
-          <t>JY-V600</t>
+          <t>인빅터스 X7</t>
         </is>
       </c>
       <c r="D1092" t="n">
-        <v>75650</v>
+        <v>459820</v>
       </c>
       <c r="E1092" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F1092" t="n">
         <v>0</v>
@@ -28839,22 +28831,22 @@
       </c>
       <c r="B1093" t="inlineStr">
         <is>
-          <t>로이드미</t>
+          <t>컴포트</t>
         </is>
       </c>
       <c r="C1093" t="inlineStr">
         <is>
-          <t>제로</t>
+          <t>콰트로 BVC-250G</t>
         </is>
       </c>
       <c r="D1093" t="n">
-        <v>256100</v>
+        <v>128900</v>
       </c>
       <c r="E1093" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="F1093" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
     </row>
     <row r="1094">
@@ -28865,19 +28857,19 @@
       </c>
       <c r="B1094" t="inlineStr">
         <is>
-          <t>아인헬</t>
+          <t>제이닉스</t>
         </is>
       </c>
       <c r="C1094" t="inlineStr">
         <is>
-          <t>TE-VC 18</t>
+          <t>JY-V600</t>
         </is>
       </c>
       <c r="D1094" t="n">
-        <v>88000</v>
+        <v>75650</v>
       </c>
       <c r="E1094" t="n">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="F1094" t="n">
         <v>0</v>
@@ -28891,22 +28883,22 @@
       </c>
       <c r="B1095" t="inlineStr">
         <is>
-          <t>보랄</t>
+          <t>로이드미</t>
         </is>
       </c>
       <c r="C1095" t="inlineStr">
         <is>
-          <t>BR-VL618LX</t>
+          <t>제로</t>
         </is>
       </c>
       <c r="D1095" t="n">
-        <v>251000</v>
+        <v>256100</v>
       </c>
       <c r="E1095" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="F1095" t="n">
-        <v>190</v>
+        <v>220</v>
       </c>
     </row>
     <row r="1096">
@@ -28917,22 +28909,22 @@
       </c>
       <c r="B1096" t="inlineStr">
         <is>
-          <t>지웰</t>
+          <t>아인헬</t>
         </is>
       </c>
       <c r="C1096" t="inlineStr">
         <is>
-          <t>벤투스 아쿠아 슈퍼</t>
+          <t>TE-VC 18</t>
         </is>
       </c>
       <c r="D1096" t="n">
-        <v>219000</v>
+        <v>88000</v>
       </c>
       <c r="E1096" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F1096" t="n">
-        <v>220</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1097">
@@ -28943,22 +28935,22 @@
       </c>
       <c r="B1097" t="inlineStr">
         <is>
-          <t>툴콘</t>
+          <t>보랄</t>
         </is>
       </c>
       <c r="C1097" t="inlineStr">
         <is>
-          <t>TVC-P008</t>
+          <t>BR-VL618LX</t>
         </is>
       </c>
       <c r="D1097" t="n">
-        <v>87680</v>
+        <v>251000</v>
       </c>
       <c r="E1097" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F1097" t="n">
-        <v>80</v>
+        <v>190</v>
       </c>
     </row>
     <row r="1098">
@@ -28969,22 +28961,22 @@
       </c>
       <c r="B1098" t="inlineStr">
         <is>
-          <t>제로홈</t>
+          <t>지웰</t>
         </is>
       </c>
       <c r="C1098" t="inlineStr">
         <is>
-          <t>아쿠아 파워</t>
+          <t>벤투스 아쿠아 슈퍼</t>
         </is>
       </c>
       <c r="D1098" t="n">
-        <v>170060</v>
+        <v>219000</v>
       </c>
       <c r="E1098" t="n">
         <v>30</v>
       </c>
       <c r="F1098" t="n">
-        <v>90</v>
+        <v>220</v>
       </c>
     </row>
     <row r="1099">
@@ -28995,22 +28987,22 @@
       </c>
       <c r="B1099" t="inlineStr">
         <is>
-          <t>다온</t>
+          <t>툴콘</t>
         </is>
       </c>
       <c r="C1099" t="inlineStr">
         <is>
-          <t>파워풀 K7</t>
+          <t>TVC-P008</t>
         </is>
       </c>
       <c r="D1099" t="n">
-        <v>742130</v>
+        <v>87680</v>
       </c>
       <c r="E1099" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="F1099" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
     </row>
     <row r="1100">
@@ -29021,22 +29013,22 @@
       </c>
       <c r="B1100" t="inlineStr">
         <is>
-          <t>시노링크</t>
+          <t>제로홈</t>
         </is>
       </c>
       <c r="C1100" t="inlineStr">
         <is>
-          <t>V20 프로</t>
+          <t>아쿠아 파워</t>
         </is>
       </c>
       <c r="D1100" t="n">
-        <v>170000</v>
+        <v>170060</v>
       </c>
       <c r="E1100" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="F1100" t="n">
-        <v>200</v>
+        <v>90</v>
       </c>
     </row>
     <row r="1101">
@@ -29047,22 +29039,22 @@
       </c>
       <c r="B1101" t="inlineStr">
         <is>
-          <t>메가트론</t>
+          <t>다온</t>
         </is>
       </c>
       <c r="C1101" t="inlineStr">
         <is>
-          <t>루첸 MT-650</t>
+          <t>파워풀 K7</t>
         </is>
       </c>
       <c r="D1101" t="n">
-        <v>99000</v>
+        <v>742130</v>
       </c>
       <c r="E1101" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F1101" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
     </row>
     <row r="1102">
@@ -29073,22 +29065,22 @@
       </c>
       <c r="B1102" t="inlineStr">
         <is>
-          <t>듀플렉스</t>
+          <t>시노링크</t>
         </is>
       </c>
       <c r="C1102" t="inlineStr">
         <is>
-          <t>DP-V2</t>
+          <t>V20 프로</t>
         </is>
       </c>
       <c r="D1102" t="n">
-        <v>115000</v>
+        <v>170000</v>
       </c>
       <c r="E1102" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F1102" t="n">
-        <v>106</v>
+        <v>200</v>
       </c>
     </row>
     <row r="1103">
@@ -29099,22 +29091,22 @@
       </c>
       <c r="B1103" t="inlineStr">
         <is>
-          <t>무명</t>
+          <t>메가트론</t>
         </is>
       </c>
       <c r="C1103" t="inlineStr">
         <is>
-          <t>ZEK-K8</t>
+          <t>루첸 MT-650</t>
         </is>
       </c>
       <c r="D1103" t="n">
-        <v>157640</v>
+        <v>99000</v>
       </c>
       <c r="E1103" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F1103" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1104">
@@ -29125,22 +29117,22 @@
       </c>
       <c r="B1104" t="inlineStr">
         <is>
-          <t>하트만</t>
+          <t>듀플렉스</t>
         </is>
       </c>
       <c r="C1104" t="inlineStr">
         <is>
-          <t>HVC-S8850BL</t>
+          <t>DP-V2</t>
         </is>
       </c>
       <c r="D1104" t="n">
-        <v>301630</v>
+        <v>115000</v>
       </c>
       <c r="E1104" t="n">
         <v>40</v>
       </c>
       <c r="F1104" t="n">
-        <v>170</v>
+        <v>106</v>
       </c>
     </row>
     <row r="1105">
@@ -29149,24 +29141,22 @@
           <t>핸디스틱청소기</t>
         </is>
       </c>
-      <c r="B1105" t="inlineStr">
-        <is>
-          <t>가포넷</t>
-        </is>
+      <c r="B1105" t="n">
+        <v>0</v>
       </c>
       <c r="C1105" t="inlineStr">
         <is>
-          <t>가포 알파스틱 FOL-189A</t>
+          <t>ZEK-K8</t>
         </is>
       </c>
       <c r="D1105" t="n">
-        <v>166770</v>
+        <v>157640</v>
       </c>
       <c r="E1105" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="F1105" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
     </row>
     <row r="1106">
@@ -29177,22 +29167,22 @@
       </c>
       <c r="B1106" t="inlineStr">
         <is>
-          <t>테팔</t>
+          <t>가포넷</t>
         </is>
       </c>
       <c r="C1106" t="inlineStr">
         <is>
-          <t>에어포스360 플랙스프로 TY9474</t>
+          <t>가포 알파스틱 FOL-189A</t>
         </is>
       </c>
       <c r="D1106" t="n">
-        <v>830000</v>
+        <v>166770</v>
       </c>
       <c r="E1106" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F1106" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
     </row>
     <row r="1107">
@@ -29203,22 +29193,22 @@
       </c>
       <c r="B1107" t="inlineStr">
         <is>
-          <t>제로홈</t>
+          <t>하트만</t>
         </is>
       </c>
       <c r="C1107" t="inlineStr">
         <is>
-          <t>맥스 BLDC</t>
+          <t>HVC-S8850BL</t>
         </is>
       </c>
       <c r="D1107" t="n">
-        <v>165000</v>
+        <v>301630</v>
       </c>
       <c r="E1107" t="n">
         <v>40</v>
       </c>
       <c r="F1107" t="n">
-        <v>220</v>
+        <v>170</v>
       </c>
     </row>
     <row r="1108">
@@ -29229,22 +29219,22 @@
       </c>
       <c r="B1108" t="inlineStr">
         <is>
-          <t>지웰</t>
+          <t>테팔</t>
         </is>
       </c>
       <c r="C1108" t="inlineStr">
         <is>
-          <t>벤투스 V5</t>
+          <t>에어포스360 플랙스프로 TY9474</t>
         </is>
       </c>
       <c r="D1108" t="n">
-        <v>79000</v>
+        <v>830000</v>
       </c>
       <c r="E1108" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F1108" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1109">
@@ -29255,22 +29245,22 @@
       </c>
       <c r="B1109" t="inlineStr">
         <is>
-          <t>라이녹스</t>
+          <t>제로홈</t>
         </is>
       </c>
       <c r="C1109" t="inlineStr">
         <is>
-          <t>플렉시블 RXBC-VC821A</t>
+          <t>맥스 BLDC</t>
         </is>
       </c>
       <c r="D1109" t="n">
-        <v>126500</v>
+        <v>165000</v>
       </c>
       <c r="E1109" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F1109" t="n">
-        <v>0</v>
+        <v>220</v>
       </c>
     </row>
     <row r="1110">
@@ -29281,22 +29271,22 @@
       </c>
       <c r="B1110" t="inlineStr">
         <is>
-          <t>신일전자</t>
+          <t>지웰</t>
         </is>
       </c>
       <c r="C1110" t="inlineStr">
         <is>
-          <t>SVC-P60DK</t>
+          <t>벤투스 V5</t>
         </is>
       </c>
       <c r="D1110" t="n">
-        <v>239000</v>
+        <v>79000</v>
       </c>
       <c r="E1110" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F1110" t="n">
-        <v>170</v>
+        <v>150</v>
       </c>
     </row>
     <row r="1111">
@@ -29307,22 +29297,22 @@
       </c>
       <c r="B1111" t="inlineStr">
         <is>
-          <t>샤오미</t>
+          <t>라이녹스</t>
         </is>
       </c>
       <c r="C1111" t="inlineStr">
         <is>
-          <t>아쿠아 FG2020</t>
+          <t>플렉시블 RXBC-VC821A</t>
         </is>
       </c>
       <c r="D1111" t="n">
-        <v>320600</v>
+        <v>126500</v>
       </c>
       <c r="E1111" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F1111" t="n">
-        <v>72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1112">
@@ -29333,22 +29323,22 @@
       </c>
       <c r="B1112" t="inlineStr">
         <is>
-          <t>툴콘</t>
+          <t>신일전자</t>
         </is>
       </c>
       <c r="C1112" t="inlineStr">
         <is>
-          <t>TVC-9000</t>
+          <t>SVC-P60DK</t>
         </is>
       </c>
       <c r="D1112" t="n">
-        <v>110000</v>
+        <v>239000</v>
       </c>
       <c r="E1112" t="n">
         <v>30</v>
       </c>
       <c r="F1112" t="n">
-        <v>85</v>
+        <v>170</v>
       </c>
     </row>
     <row r="1113">
@@ -29359,22 +29349,22 @@
       </c>
       <c r="B1113" t="inlineStr">
         <is>
-          <t>보랄</t>
+          <t>샤오미</t>
         </is>
       </c>
       <c r="C1113" t="inlineStr">
         <is>
-          <t>BR-HC75-BC</t>
+          <t>아쿠아 FG2020</t>
         </is>
       </c>
       <c r="D1113" t="n">
-        <v>200000</v>
+        <v>320600</v>
       </c>
       <c r="E1113" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F1113" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
     </row>
     <row r="1114">
@@ -29385,22 +29375,22 @@
       </c>
       <c r="B1114" t="inlineStr">
         <is>
-          <t>벤하임코리아</t>
+          <t>툴콘</t>
         </is>
       </c>
       <c r="C1114" t="inlineStr">
         <is>
-          <t>Z20 BVC-2200</t>
+          <t>TVC-9000</t>
         </is>
       </c>
       <c r="D1114" t="n">
-        <v>260000</v>
+        <v>110000</v>
       </c>
       <c r="E1114" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F1114" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
     </row>
     <row r="1115">
@@ -29411,22 +29401,22 @@
       </c>
       <c r="B1115" t="inlineStr">
         <is>
-          <t>리앤쿡</t>
+          <t>보랄</t>
         </is>
       </c>
       <c r="C1115" t="inlineStr">
         <is>
-          <t>V11 LC700</t>
+          <t>BR-HC75-BC</t>
         </is>
       </c>
       <c r="D1115" t="n">
-        <v>657070</v>
+        <v>200000</v>
       </c>
       <c r="E1115" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F1115" t="n">
-        <v>190</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1116">
@@ -29437,19 +29427,19 @@
       </c>
       <c r="B1116" t="inlineStr">
         <is>
-          <t>수인</t>
+          <t>벤하임코리아</t>
         </is>
       </c>
       <c r="C1116" t="inlineStr">
         <is>
-          <t>SN-SRV88XL</t>
+          <t>Z20 BVC-2200</t>
         </is>
       </c>
       <c r="D1116" t="n">
-        <v>320000</v>
+        <v>260000</v>
       </c>
       <c r="E1116" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="F1116" t="n">
         <v>0</v>
@@ -29463,22 +29453,22 @@
       </c>
       <c r="B1117" t="inlineStr">
         <is>
-          <t>다이슨</t>
+          <t>리앤쿡</t>
         </is>
       </c>
       <c r="C1117" t="inlineStr">
         <is>
-          <t>V11 컴플리트 프로</t>
+          <t>V11 LC700</t>
         </is>
       </c>
       <c r="D1117" t="n">
-        <v>1200000</v>
+        <v>657070</v>
       </c>
       <c r="E1117" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="F1117" t="n">
-        <v>0</v>
+        <v>190</v>
       </c>
     </row>
     <row r="1118">
@@ -29489,22 +29479,22 @@
       </c>
       <c r="B1118" t="inlineStr">
         <is>
-          <t>비브르</t>
+          <t>수인</t>
         </is>
       </c>
       <c r="C1118" t="inlineStr">
         <is>
-          <t>스톰파워 A9 플러스</t>
+          <t>SN-SRV88XL</t>
         </is>
       </c>
       <c r="D1118" t="n">
-        <v>103090</v>
+        <v>320000</v>
       </c>
       <c r="E1118" t="n">
         <v>40</v>
       </c>
       <c r="F1118" t="n">
-        <v>110</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1119">
@@ -29515,22 +29505,22 @@
       </c>
       <c r="B1119" t="inlineStr">
         <is>
-          <t>메가비타</t>
+          <t>다이슨</t>
         </is>
       </c>
       <c r="C1119" t="inlineStr">
         <is>
-          <t>MV90</t>
+          <t>V11 컴플리트 프로</t>
         </is>
       </c>
       <c r="D1119" t="n">
-        <v>108100</v>
+        <v>1200000</v>
       </c>
       <c r="E1119" t="n">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="F1119" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1120">
@@ -29541,22 +29531,22 @@
       </c>
       <c r="B1120" t="inlineStr">
         <is>
-          <t>DIBEA</t>
+          <t>비브르</t>
         </is>
       </c>
       <c r="C1120" t="inlineStr">
         <is>
-          <t>A100</t>
+          <t>스톰파워 A9 플러스</t>
         </is>
       </c>
       <c r="D1120" t="n">
-        <v>158050</v>
+        <v>103090</v>
       </c>
       <c r="E1120" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F1120" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="1121">
@@ -29567,22 +29557,22 @@
       </c>
       <c r="B1121" t="inlineStr">
         <is>
-          <t>일렉파워전자</t>
+          <t>메가비타</t>
         </is>
       </c>
       <c r="C1121" t="inlineStr">
         <is>
-          <t>아토케어 EP-80</t>
+          <t>MV90</t>
         </is>
       </c>
       <c r="D1121" t="n">
-        <v>249000</v>
+        <v>108100</v>
       </c>
       <c r="E1121" t="n">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="F1121" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="1122">
@@ -29593,22 +29583,22 @@
       </c>
       <c r="B1122" t="inlineStr">
         <is>
-          <t>스마트빔</t>
+          <t>DIBEA</t>
         </is>
       </c>
       <c r="C1122" t="inlineStr">
         <is>
-          <t>WIN-7200VC</t>
+          <t>A100</t>
         </is>
       </c>
       <c r="D1122" t="n">
-        <v>149000</v>
+        <v>158050</v>
       </c>
       <c r="E1122" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F1122" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
     </row>
     <row r="1123">
@@ -29619,19 +29609,19 @@
       </c>
       <c r="B1123" t="inlineStr">
         <is>
-          <t>뉴썬인더스트리</t>
+          <t>일렉파워전자</t>
         </is>
       </c>
       <c r="C1123" t="inlineStr">
         <is>
-          <t>NEW-S19</t>
+          <t>아토케어 EP-80</t>
         </is>
       </c>
       <c r="D1123" t="n">
-        <v>170000</v>
+        <v>249000</v>
       </c>
       <c r="E1123" t="n">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="F1123" t="n">
         <v>0</v>
@@ -29645,16 +29635,16 @@
       </c>
       <c r="B1124" t="inlineStr">
         <is>
-          <t>한올아이엔씨</t>
+          <t>스마트빔</t>
         </is>
       </c>
       <c r="C1124" t="inlineStr">
         <is>
-          <t>코흐위버 프리페이션 KC-V100BL</t>
+          <t>WIN-7200VC</t>
         </is>
       </c>
       <c r="D1124" t="n">
-        <v>448000</v>
+        <v>149000</v>
       </c>
       <c r="E1124" t="n">
         <v>40</v>
@@ -29671,19 +29661,19 @@
       </c>
       <c r="B1125" t="inlineStr">
         <is>
-          <t>유니맥스</t>
+          <t>뉴썬인더스트리</t>
         </is>
       </c>
       <c r="C1125" t="inlineStr">
         <is>
-          <t>UVC-1895</t>
+          <t>NEW-S19</t>
         </is>
       </c>
       <c r="D1125" t="n">
-        <v>181460</v>
+        <v>170000</v>
       </c>
       <c r="E1125" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F1125" t="n">
         <v>0</v>
@@ -29697,22 +29687,22 @@
       </c>
       <c r="B1126" t="inlineStr">
         <is>
-          <t>샤오미</t>
+          <t>한올아이엔씨</t>
         </is>
       </c>
       <c r="C1126" t="inlineStr">
         <is>
-          <t>SCWXCQ01RR</t>
+          <t>코흐위버 프리페이션 KC-V100BL</t>
         </is>
       </c>
       <c r="D1126" t="n">
-        <v>213080</v>
+        <v>448000</v>
       </c>
       <c r="E1126" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F1126" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1127">
@@ -29723,19 +29713,19 @@
       </c>
       <c r="B1127" t="inlineStr">
         <is>
-          <t>미켈란젤로</t>
+          <t>유니맥스</t>
         </is>
       </c>
       <c r="C1127" t="inlineStr">
         <is>
-          <t>슈퍼파워 프리플러스 V2 ARO-1300BL</t>
+          <t>UVC-1895</t>
         </is>
       </c>
       <c r="D1127" t="n">
-        <v>237970</v>
+        <v>181460</v>
       </c>
       <c r="E1127" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F1127" t="n">
         <v>0</v>
@@ -29749,22 +29739,22 @@
       </c>
       <c r="B1128" t="inlineStr">
         <is>
-          <t>벡셀</t>
+          <t>샤오미</t>
         </is>
       </c>
       <c r="C1128" t="inlineStr">
         <is>
-          <t>BHV-3001S</t>
+          <t>SCWXCQ01RR</t>
         </is>
       </c>
       <c r="D1128" t="n">
-        <v>185070</v>
+        <v>213080</v>
       </c>
       <c r="E1128" t="n">
         <v>30</v>
       </c>
       <c r="F1128" t="n">
-        <v>190</v>
+        <v>100</v>
       </c>
     </row>
     <row r="1129">
@@ -29775,22 +29765,22 @@
       </c>
       <c r="B1129" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>미켈란젤로</t>
         </is>
       </c>
       <c r="C1129" t="inlineStr">
         <is>
-          <t>제트 VS20R9044SB</t>
+          <t>슈퍼파워 프리플러스 V2 ARO-1300BL</t>
         </is>
       </c>
       <c r="D1129" t="n">
-        <v>827700</v>
+        <v>237970</v>
       </c>
       <c r="E1129" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="F1129" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1130">
@@ -29801,22 +29791,22 @@
       </c>
       <c r="B1130" t="inlineStr">
         <is>
-          <t>로얄민스터</t>
+          <t>벡셀</t>
         </is>
       </c>
       <c r="C1130" t="inlineStr">
         <is>
-          <t>V10 RVCS-2000</t>
+          <t>BHV-3001S</t>
         </is>
       </c>
       <c r="D1130" t="n">
-        <v>198230</v>
+        <v>185070</v>
       </c>
       <c r="E1130" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F1130" t="n">
-        <v>110</v>
+        <v>190</v>
       </c>
     </row>
     <row r="1131">
@@ -29827,22 +29817,22 @@
       </c>
       <c r="B1131" t="inlineStr">
         <is>
-          <t>이노크아든</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="C1131" t="inlineStr">
         <is>
-          <t>IA-I9V1</t>
+          <t>제트 VS20R9044SB</t>
         </is>
       </c>
       <c r="D1131" t="n">
-        <v>168000</v>
+        <v>827700</v>
       </c>
       <c r="E1131" t="n">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="F1131" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
     </row>
     <row r="1132">
@@ -29853,22 +29843,22 @@
       </c>
       <c r="B1132" t="inlineStr">
         <is>
-          <t>DIBEA</t>
+          <t>로얄민스터</t>
         </is>
       </c>
       <c r="C1132" t="inlineStr">
         <is>
-          <t>T8 프로</t>
+          <t>V10 RVCS-2000</t>
         </is>
       </c>
       <c r="D1132" t="n">
-        <v>268000</v>
+        <v>198230</v>
       </c>
       <c r="E1132" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F1132" t="n">
-        <v>170</v>
+        <v>110</v>
       </c>
     </row>
     <row r="1133">
@@ -29884,11 +29874,11 @@
       </c>
       <c r="C1133" t="inlineStr">
         <is>
-          <t>IA-I9V2</t>
+          <t>IA-I9V1</t>
         </is>
       </c>
       <c r="D1133" t="n">
-        <v>128000</v>
+        <v>168000</v>
       </c>
       <c r="E1133" t="n">
         <v>35</v>
@@ -29905,22 +29895,22 @@
       </c>
       <c r="B1134" t="inlineStr">
         <is>
-          <t>대웅모닝컴</t>
+          <t>DIBEA</t>
         </is>
       </c>
       <c r="C1134" t="inlineStr">
         <is>
-          <t>GTK-VA22B</t>
+          <t>T8 프로</t>
         </is>
       </c>
       <c r="D1134" t="n">
-        <v>182390</v>
+        <v>268000</v>
       </c>
       <c r="E1134" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F1134" t="n">
-        <v>0</v>
+        <v>170</v>
       </c>
     </row>
     <row r="1135">
@@ -29931,22 +29921,22 @@
       </c>
       <c r="B1135" t="inlineStr">
         <is>
-          <t>스위스밀리터리</t>
+          <t>이노크아든</t>
         </is>
       </c>
       <c r="C1135" t="inlineStr">
         <is>
-          <t>SMA-X22</t>
+          <t>IA-I9V2</t>
         </is>
       </c>
       <c r="D1135" t="n">
-        <v>199000</v>
+        <v>128000</v>
       </c>
       <c r="E1135" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F1135" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1136">
@@ -29957,22 +29947,22 @@
       </c>
       <c r="B1136" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>대웅모닝컴</t>
         </is>
       </c>
       <c r="C1136" t="inlineStr">
         <is>
-          <t>제트 VS20R9074S3</t>
+          <t>GTK-VA22B</t>
         </is>
       </c>
       <c r="D1136" t="n">
-        <v>899900</v>
+        <v>182390</v>
       </c>
       <c r="E1136" t="n">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="F1136" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1137">
@@ -29983,22 +29973,22 @@
       </c>
       <c r="B1137" t="inlineStr">
         <is>
-          <t>오토싱</t>
+          <t>스위스밀리터리</t>
         </is>
       </c>
       <c r="C1137" t="inlineStr">
         <is>
-          <t>OTC-6200VM</t>
+          <t>SMA-X22</t>
         </is>
       </c>
       <c r="D1137" t="n">
-        <v>249400</v>
+        <v>199000</v>
       </c>
       <c r="E1137" t="n">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="F1137" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="1138">
@@ -30009,22 +29999,22 @@
       </c>
       <c r="B1138" t="inlineStr">
         <is>
-          <t>일렉트로룩스</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="C1138" t="inlineStr">
         <is>
-          <t>에르고라피도 베드프로 ZB3324B</t>
+          <t>제트 VS20R9074S3</t>
         </is>
       </c>
       <c r="D1138" t="n">
-        <v>480190</v>
+        <v>899900</v>
       </c>
       <c r="E1138" t="n">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="F1138" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
     </row>
     <row r="1139">
@@ -30035,22 +30025,22 @@
       </c>
       <c r="B1139" t="inlineStr">
         <is>
-          <t>DIBEA</t>
+          <t>오토싱</t>
         </is>
       </c>
       <c r="C1139" t="inlineStr">
         <is>
-          <t>다크블루 프로</t>
+          <t>OTC-6200VM</t>
         </is>
       </c>
       <c r="D1139" t="n">
-        <v>159000</v>
+        <v>249400</v>
       </c>
       <c r="E1139" t="n">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="F1139" t="n">
-        <v>170</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1140">
@@ -30061,19 +30051,19 @@
       </c>
       <c r="B1140" t="inlineStr">
         <is>
-          <t>신일전자</t>
+          <t>일렉트로룩스</t>
         </is>
       </c>
       <c r="C1140" t="inlineStr">
         <is>
-          <t>SVC-D180BLDC</t>
+          <t>에르고라피도 베드프로 ZB3324B</t>
         </is>
       </c>
       <c r="D1140" t="n">
-        <v>174100</v>
+        <v>480190</v>
       </c>
       <c r="E1140" t="n">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="F1140" t="n">
         <v>0</v>
@@ -30087,22 +30077,22 @@
       </c>
       <c r="B1141" t="inlineStr">
         <is>
-          <t>오토싱</t>
+          <t>DIBEA</t>
         </is>
       </c>
       <c r="C1141" t="inlineStr">
         <is>
-          <t>OTC-6300VM</t>
+          <t>다크블루 프로</t>
         </is>
       </c>
       <c r="D1141" t="n">
-        <v>269000</v>
+        <v>159000</v>
       </c>
       <c r="E1141" t="n">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="F1141" t="n">
-        <v>0</v>
+        <v>170</v>
       </c>
     </row>
     <row r="1142">
@@ -30113,22 +30103,22 @@
       </c>
       <c r="B1142" t="inlineStr">
         <is>
-          <t>스위스밀리터리</t>
+          <t>신일전자</t>
         </is>
       </c>
       <c r="C1142" t="inlineStr">
         <is>
-          <t>알토 SMA-202R</t>
+          <t>SVC-D180BLDC</t>
         </is>
       </c>
       <c r="D1142" t="n">
-        <v>200000</v>
+        <v>174100</v>
       </c>
       <c r="E1142" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F1142" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1143">
@@ -30139,22 +30129,22 @@
       </c>
       <c r="B1143" t="inlineStr">
         <is>
-          <t>DIBEA</t>
+          <t>오토싱</t>
         </is>
       </c>
       <c r="C1143" t="inlineStr">
         <is>
-          <t>에코19 프로</t>
+          <t>OTC-6300VM</t>
         </is>
       </c>
       <c r="D1143" t="n">
-        <v>147970</v>
+        <v>269000</v>
       </c>
       <c r="E1143" t="n">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="F1143" t="n">
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1144">
@@ -30165,22 +30155,22 @@
       </c>
       <c r="B1144" t="inlineStr">
         <is>
-          <t>후버</t>
+          <t>스위스밀리터리</t>
         </is>
       </c>
       <c r="C1144" t="inlineStr">
         <is>
-          <t>HSV-FUM-KA</t>
+          <t>알토 SMA-202R</t>
         </is>
       </c>
       <c r="D1144" t="n">
-        <v>200200</v>
+        <v>200000</v>
       </c>
       <c r="E1144" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F1144" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="1145">
@@ -30191,22 +30181,22 @@
       </c>
       <c r="B1145" t="inlineStr">
         <is>
-          <t>대웅모닝컴</t>
+          <t>DIBEA</t>
         </is>
       </c>
       <c r="C1145" t="inlineStr">
         <is>
-          <t>DWVC-H0256WS</t>
+          <t>에코19 프로</t>
         </is>
       </c>
       <c r="D1145" t="n">
-        <v>102130</v>
+        <v>147970</v>
       </c>
       <c r="E1145" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F1145" t="n">
-        <v>25</v>
+        <v>180</v>
       </c>
     </row>
     <row r="1146">
@@ -30217,22 +30207,22 @@
       </c>
       <c r="B1146" t="inlineStr">
         <is>
-          <t>핸즈</t>
+          <t>후버</t>
         </is>
       </c>
       <c r="C1146" t="inlineStr">
         <is>
-          <t>HVC-120LA</t>
+          <t>HSV-FUM-KA</t>
         </is>
       </c>
       <c r="D1146" t="n">
-        <v>29610</v>
+        <v>200200</v>
       </c>
       <c r="E1146" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="F1146" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1147">
@@ -30243,22 +30233,22 @@
       </c>
       <c r="B1147" t="inlineStr">
         <is>
-          <t>다이슨</t>
+          <t>대웅모닝컴</t>
         </is>
       </c>
       <c r="C1147" t="inlineStr">
         <is>
-          <t>V10 플러피 플러스</t>
+          <t>DWVC-H0256WS</t>
         </is>
       </c>
       <c r="D1147" t="n">
-        <v>999970</v>
+        <v>102130</v>
       </c>
       <c r="E1147" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F1147" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="1148">
@@ -30269,22 +30259,22 @@
       </c>
       <c r="B1148" t="inlineStr">
         <is>
-          <t>대웅모닝컴</t>
+          <t>핸즈</t>
         </is>
       </c>
       <c r="C1148" t="inlineStr">
         <is>
-          <t>DWV-DC520WS</t>
+          <t>HVC-120LA</t>
         </is>
       </c>
       <c r="D1148" t="n">
-        <v>114190</v>
+        <v>29610</v>
       </c>
       <c r="E1148" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="F1148" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
     </row>
     <row r="1149">
@@ -30295,16 +30285,16 @@
       </c>
       <c r="B1149" t="inlineStr">
         <is>
-          <t>가이타이너</t>
+          <t>다이슨</t>
         </is>
       </c>
       <c r="C1149" t="inlineStr">
         <is>
-          <t>킹클린 GT-MC93-V33</t>
+          <t>V10 플러피 플러스</t>
         </is>
       </c>
       <c r="D1149" t="n">
-        <v>98000</v>
+        <v>999970</v>
       </c>
       <c r="E1149" t="n">
         <v>0</v>
@@ -30321,19 +30311,19 @@
       </c>
       <c r="B1150" t="inlineStr">
         <is>
-          <t>쿠비녹스</t>
+          <t>대웅모닝컴</t>
         </is>
       </c>
       <c r="C1150" t="inlineStr">
         <is>
-          <t>CX-182VC</t>
+          <t>DWV-DC520WS</t>
         </is>
       </c>
       <c r="D1150" t="n">
-        <v>144750</v>
+        <v>114190</v>
       </c>
       <c r="E1150" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F1150" t="n">
         <v>0</v>
@@ -30347,19 +30337,19 @@
       </c>
       <c r="B1151" t="inlineStr">
         <is>
-          <t>오토싱</t>
+          <t>가이타이너</t>
         </is>
       </c>
       <c r="C1151" t="inlineStr">
         <is>
-          <t>OTC-6000VM</t>
+          <t>킹클린 GT-MC93-V33</t>
         </is>
       </c>
       <c r="D1151" t="n">
-        <v>244890</v>
+        <v>98000</v>
       </c>
       <c r="E1151" t="n">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="F1151" t="n">
         <v>0</v>
@@ -30373,22 +30363,22 @@
       </c>
       <c r="B1152" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>쿠비녹스</t>
         </is>
       </c>
       <c r="C1152" t="inlineStr">
         <is>
-          <t>코드제로 A9 A968</t>
+          <t>CX-182VC</t>
         </is>
       </c>
       <c r="D1152" t="n">
-        <v>1423850</v>
+        <v>144750</v>
       </c>
       <c r="E1152" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="F1152" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1153">
@@ -30399,22 +30389,22 @@
       </c>
       <c r="B1153" t="inlineStr">
         <is>
-          <t>벤하임코리아</t>
+          <t>오토싱</t>
         </is>
       </c>
       <c r="C1153" t="inlineStr">
         <is>
-          <t>V10 레볼루션</t>
+          <t>OTC-6000VM</t>
         </is>
       </c>
       <c r="D1153" t="n">
-        <v>562120</v>
+        <v>244890</v>
       </c>
       <c r="E1153" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F1153" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1154">
@@ -30425,22 +30415,22 @@
       </c>
       <c r="B1154" t="inlineStr">
         <is>
-          <t>다이슨</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="C1154" t="inlineStr">
         <is>
-          <t>V7 모터헤드</t>
+          <t>코드제로 A9 A968</t>
         </is>
       </c>
       <c r="D1154" t="n">
-        <v>656100</v>
+        <v>1423850</v>
       </c>
       <c r="E1154" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F1154" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
     </row>
     <row r="1155">
@@ -30451,22 +30441,22 @@
       </c>
       <c r="B1155" t="inlineStr">
         <is>
-          <t>유니맥스</t>
+          <t>벤하임코리아</t>
         </is>
       </c>
       <c r="C1155" t="inlineStr">
         <is>
-          <t>UVC-1891P</t>
+          <t>V10 레볼루션</t>
         </is>
       </c>
       <c r="D1155" t="n">
-        <v>123000</v>
+        <v>562120</v>
       </c>
       <c r="E1155" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="F1155" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="1156">
@@ -30482,17 +30472,17 @@
       </c>
       <c r="C1156" t="inlineStr">
         <is>
-          <t>V10 앱솔루트 엑스트라</t>
+          <t>V7 모터헤드</t>
         </is>
       </c>
       <c r="D1156" t="n">
-        <v>1002500</v>
+        <v>656100</v>
       </c>
       <c r="E1156" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="F1156" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="1157">
@@ -30503,22 +30493,22 @@
       </c>
       <c r="B1157" t="inlineStr">
         <is>
-          <t>다이슨</t>
+          <t>유니맥스</t>
         </is>
       </c>
       <c r="C1157" t="inlineStr">
         <is>
-          <t>V8 플러피 헤파</t>
+          <t>UVC-1891P</t>
         </is>
       </c>
       <c r="D1157" t="n">
-        <v>802180</v>
+        <v>123000</v>
       </c>
       <c r="E1157" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="F1157" t="n">
-        <v>115</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1158">
@@ -30529,19 +30519,19 @@
       </c>
       <c r="B1158" t="inlineStr">
         <is>
-          <t>굿터치</t>
+          <t>다이슨</t>
         </is>
       </c>
       <c r="C1158" t="inlineStr">
         <is>
-          <t>GOOD-T2</t>
+          <t>V10 앱솔루트 엑스트라</t>
         </is>
       </c>
       <c r="D1158" t="n">
-        <v>105000</v>
+        <v>1002500</v>
       </c>
       <c r="E1158" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="F1158" t="n">
         <v>0</v>
@@ -30550,27 +30540,27 @@
     <row r="1159">
       <c r="A1159" t="inlineStr">
         <is>
-          <t>스틱청소기</t>
+          <t>핸디스틱청소기</t>
         </is>
       </c>
       <c r="B1159" t="inlineStr">
         <is>
-          <t>테팔</t>
+          <t>다이슨</t>
         </is>
       </c>
       <c r="C1159" t="inlineStr">
         <is>
-          <t>에어포스 익스트림 파워프로 TY8895</t>
+          <t>V8 플러피 헤파</t>
         </is>
       </c>
       <c r="D1159" t="n">
-        <v>557070</v>
+        <v>802180</v>
       </c>
       <c r="E1159" t="n">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="F1159" t="n">
-        <v>0</v>
+        <v>115</v>
       </c>
     </row>
     <row r="1160">
@@ -30581,22 +30571,22 @@
       </c>
       <c r="B1160" t="inlineStr">
         <is>
-          <t>신일전자</t>
+          <t>굿터치</t>
         </is>
       </c>
       <c r="C1160" t="inlineStr">
         <is>
-          <t>더쎈 SVC-ECO150</t>
+          <t>GOOD-T2</t>
         </is>
       </c>
       <c r="D1160" t="n">
-        <v>158870</v>
+        <v>105000</v>
       </c>
       <c r="E1160" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F1160" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1161">
@@ -30607,48 +30597,48 @@
       </c>
       <c r="B1161" t="inlineStr">
         <is>
-          <t>스위스밀리터리</t>
+          <t>신일전자</t>
         </is>
       </c>
       <c r="C1161" t="inlineStr">
         <is>
-          <t>SMA-V1800M</t>
+          <t>더쎈 SVC-ECO150</t>
         </is>
       </c>
       <c r="D1161" t="n">
-        <v>205870</v>
+        <v>158870</v>
       </c>
       <c r="E1161" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F1161" t="n">
-        <v>35</v>
+        <v>150</v>
       </c>
     </row>
     <row r="1162">
       <c r="A1162" t="inlineStr">
         <is>
-          <t>핸디스틱청소기</t>
+          <t>스틱청소기</t>
         </is>
       </c>
       <c r="B1162" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>테팔</t>
         </is>
       </c>
       <c r="C1162" t="inlineStr">
         <is>
-          <t>파워건 VS80M8035KR</t>
+          <t>에어포스 익스트림 파워프로 TY8895</t>
         </is>
       </c>
       <c r="D1162" t="n">
-        <v>751900</v>
+        <v>557070</v>
       </c>
       <c r="E1162" t="n">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="F1162" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1163">
@@ -30659,22 +30649,22 @@
       </c>
       <c r="B1163" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>스위스밀리터리</t>
         </is>
       </c>
       <c r="C1163" t="inlineStr">
         <is>
-          <t>파워건 스타워즈 에디션 VS80M8080</t>
+          <t>SMA-V1800M</t>
         </is>
       </c>
       <c r="D1163" t="n">
-        <v>954300</v>
+        <v>205870</v>
       </c>
       <c r="E1163" t="n">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="F1163" t="n">
-        <v>150</v>
+        <v>35</v>
       </c>
     </row>
     <row r="1164">
@@ -30685,22 +30675,22 @@
       </c>
       <c r="B1164" t="inlineStr">
         <is>
-          <t>마끼다</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="C1164" t="inlineStr">
         <is>
-          <t>CL106FD</t>
+          <t>파워건 VS80M8035KR</t>
         </is>
       </c>
       <c r="D1164" t="n">
-        <v>56060</v>
+        <v>751900</v>
       </c>
       <c r="E1164" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F1164" t="n">
-        <v>19</v>
+        <v>150</v>
       </c>
     </row>
     <row r="1165">
@@ -30711,48 +30701,48 @@
       </c>
       <c r="B1165" t="inlineStr">
         <is>
-          <t>일렉트로룩스</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="C1165" t="inlineStr">
         <is>
-          <t>에르고라피도 베드프로 ZB3325B</t>
+          <t>파워건 스타워즈 에디션 VS80M8080</t>
         </is>
       </c>
       <c r="D1165" t="n">
-        <v>927210</v>
+        <v>954300</v>
       </c>
       <c r="E1165" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F1165" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
     </row>
     <row r="1166">
       <c r="A1166" t="inlineStr">
         <is>
-          <t>스틱청소기</t>
+          <t>핸디스틱청소기</t>
         </is>
       </c>
       <c r="B1166" t="inlineStr">
         <is>
-          <t>런던필</t>
+          <t>마끼다</t>
         </is>
       </c>
       <c r="C1166" t="inlineStr">
         <is>
-          <t>LF-590</t>
+          <t>CL106FD</t>
         </is>
       </c>
       <c r="D1166" t="n">
-        <v>24000</v>
+        <v>56060</v>
       </c>
       <c r="E1166" t="n">
         <v>0</v>
       </c>
       <c r="F1166" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1167">
@@ -30763,19 +30753,19 @@
       </c>
       <c r="B1167" t="inlineStr">
         <is>
-          <t>ZEK</t>
+          <t>일렉트로룩스</t>
         </is>
       </c>
       <c r="C1167" t="inlineStr">
         <is>
-          <t>ZC1018</t>
+          <t>에르고라피도 베드프로 ZB3325B</t>
         </is>
       </c>
       <c r="D1167" t="n">
-        <v>89900</v>
+        <v>927210</v>
       </c>
       <c r="E1167" t="n">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="F1167" t="n">
         <v>0</v>
@@ -30784,24 +30774,24 @@
     <row r="1168">
       <c r="A1168" t="inlineStr">
         <is>
-          <t>핸디스틱청소기</t>
+          <t>스틱청소기</t>
         </is>
       </c>
       <c r="B1168" t="inlineStr">
         <is>
-          <t>일렉트로룩스</t>
+          <t>런던필</t>
         </is>
       </c>
       <c r="C1168" t="inlineStr">
         <is>
-          <t>에르고라피도 ZB3320P</t>
+          <t>LF-590</t>
         </is>
       </c>
       <c r="D1168" t="n">
-        <v>377900</v>
+        <v>24000</v>
       </c>
       <c r="E1168" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="F1168" t="n">
         <v>0</v>
@@ -30813,24 +30803,22 @@
           <t>핸디스틱청소기</t>
         </is>
       </c>
-      <c r="B1169" t="inlineStr">
-        <is>
-          <t>다이슨</t>
-        </is>
+      <c r="B1169" t="n">
+        <v>0</v>
       </c>
       <c r="C1169" t="inlineStr">
         <is>
-          <t>V7 플러피 플러스</t>
+          <t>ZC1018</t>
         </is>
       </c>
       <c r="D1169" t="n">
-        <v>700000</v>
+        <v>89900</v>
       </c>
       <c r="E1169" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F1169" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1170">
@@ -30841,22 +30829,22 @@
       </c>
       <c r="B1170" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>일렉트로룩스</t>
         </is>
       </c>
       <c r="C1170" t="inlineStr">
         <is>
-          <t>파워스틱 VS60M6010KP</t>
+          <t>에르고라피도 ZB3320P</t>
         </is>
       </c>
       <c r="D1170" t="n">
-        <v>2149850</v>
+        <v>377900</v>
       </c>
       <c r="E1170" t="n">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F1170" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1171">
@@ -30867,22 +30855,22 @@
       </c>
       <c r="B1171" t="inlineStr">
         <is>
-          <t>지웰</t>
+          <t>다이슨</t>
         </is>
       </c>
       <c r="C1171" t="inlineStr">
         <is>
-          <t>GCOP-9100</t>
+          <t>V7 플러피 플러스</t>
         </is>
       </c>
       <c r="D1171" t="n">
-        <v>599800</v>
+        <v>700000</v>
       </c>
       <c r="E1171" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F1171" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
     </row>
     <row r="1172">
@@ -30893,22 +30881,22 @@
       </c>
       <c r="B1172" t="inlineStr">
         <is>
-          <t>스위스밀리터리</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="C1172" t="inlineStr">
         <is>
-          <t>SMA-V22</t>
+          <t>파워스틱 VS60M6010KP</t>
         </is>
       </c>
       <c r="D1172" t="n">
-        <v>248990</v>
+        <v>2149850</v>
       </c>
       <c r="E1172" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F1172" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
     </row>
     <row r="1173">
@@ -30919,22 +30907,22 @@
       </c>
       <c r="B1173" t="inlineStr">
         <is>
-          <t>아로나전자</t>
+          <t>지웰</t>
         </is>
       </c>
       <c r="C1173" t="inlineStr">
         <is>
-          <t>AVC-2600V</t>
+          <t>GCOP-9100</t>
         </is>
       </c>
       <c r="D1173" t="n">
-        <v>61890</v>
+        <v>599800</v>
       </c>
       <c r="E1173" t="n">
         <v>0</v>
       </c>
       <c r="F1173" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="1174">
@@ -30945,22 +30933,22 @@
       </c>
       <c r="B1174" t="inlineStr">
         <is>
-          <t>수인</t>
+          <t>스위스밀리터리</t>
         </is>
       </c>
       <c r="C1174" t="inlineStr">
         <is>
-          <t>SN-1000RV</t>
+          <t>SMA-V22</t>
         </is>
       </c>
       <c r="D1174" t="n">
-        <v>109000</v>
+        <v>248990</v>
       </c>
       <c r="E1174" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F1174" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="1175">
@@ -30971,19 +30959,19 @@
       </c>
       <c r="B1175" t="inlineStr">
         <is>
-          <t>무명</t>
+          <t>아로나전자</t>
         </is>
       </c>
       <c r="C1175" t="inlineStr">
         <is>
-          <t>SC-100</t>
+          <t>AVC-2600V</t>
         </is>
       </c>
       <c r="D1175" t="n">
-        <v>69800</v>
+        <v>61890</v>
       </c>
       <c r="E1175" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F1175" t="n">
         <v>0</v>
@@ -30997,22 +30985,22 @@
       </c>
       <c r="B1176" t="inlineStr">
         <is>
-          <t>신일전자</t>
+          <t>수인</t>
         </is>
       </c>
       <c r="C1176" t="inlineStr">
         <is>
-          <t>SVC-C17KP</t>
+          <t>SN-1000RV</t>
         </is>
       </c>
       <c r="D1176" t="n">
-        <v>59350</v>
+        <v>109000</v>
       </c>
       <c r="E1176" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F1176" t="n">
-        <v>62</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1177">
@@ -31021,21 +31009,19 @@
           <t>핸디스틱청소기</t>
         </is>
       </c>
-      <c r="B1177" t="inlineStr">
-        <is>
-          <t>무궁화전자</t>
-        </is>
+      <c r="B1177" t="n">
+        <v>0</v>
       </c>
       <c r="C1177" t="inlineStr">
         <is>
-          <t>바로바로 MHC-810</t>
+          <t>SC-100</t>
         </is>
       </c>
       <c r="D1177" t="n">
-        <v>84550</v>
+        <v>69800</v>
       </c>
       <c r="E1177" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F1177" t="n">
         <v>0</v>
@@ -31049,22 +31035,22 @@
       </c>
       <c r="B1178" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>신일전자</t>
         </is>
       </c>
       <c r="C1178" t="inlineStr">
         <is>
-          <t>파워스틱 VS60K6080KD</t>
+          <t>SVC-C17KP</t>
         </is>
       </c>
       <c r="D1178" t="n">
-        <v>726400</v>
+        <v>59350</v>
       </c>
       <c r="E1178" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F1178" t="n">
-        <v>30</v>
+        <v>62</v>
       </c>
     </row>
     <row r="1179">
@@ -31075,19 +31061,19 @@
       </c>
       <c r="B1179" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>무궁화전자</t>
         </is>
       </c>
       <c r="C1179" t="inlineStr">
         <is>
-          <t>파워스틱 VS60K6030KP</t>
+          <t>바로바로 MHC-810</t>
         </is>
       </c>
       <c r="D1179" t="n">
-        <v>502100</v>
+        <v>84550</v>
       </c>
       <c r="E1179" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F1179" t="n">
         <v>0</v>
@@ -31101,22 +31087,22 @@
       </c>
       <c r="B1180" t="inlineStr">
         <is>
-          <t>신일전자</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="C1180" t="inlineStr">
         <is>
-          <t>SVC-S21JA</t>
+          <t>파워스틱 VS60K6080KD</t>
         </is>
       </c>
       <c r="D1180" t="n">
-        <v>227690</v>
+        <v>726400</v>
       </c>
       <c r="E1180" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F1180" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="1181">
@@ -31127,19 +31113,19 @@
       </c>
       <c r="B1181" t="inlineStr">
         <is>
-          <t>신일전자</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="C1181" t="inlineStr">
         <is>
-          <t>SVC-S8000MJ</t>
+          <t>파워스틱 VS60K6030KP</t>
         </is>
       </c>
       <c r="D1181" t="n">
-        <v>99900</v>
+        <v>502100</v>
       </c>
       <c r="E1181" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="F1181" t="n">
         <v>0</v>
@@ -31158,11 +31144,11 @@
       </c>
       <c r="C1182" t="inlineStr">
         <is>
-          <t>SVC-1005NW</t>
+          <t>SVC-S21JA</t>
         </is>
       </c>
       <c r="D1182" t="n">
-        <v>169150</v>
+        <v>227690</v>
       </c>
       <c r="E1182" t="n">
         <v>0</v>
@@ -31179,19 +31165,19 @@
       </c>
       <c r="B1183" t="inlineStr">
         <is>
-          <t>유셀</t>
+          <t>신일전자</t>
         </is>
       </c>
       <c r="C1183" t="inlineStr">
         <is>
-          <t>EV-888</t>
+          <t>SVC-S8000MJ</t>
         </is>
       </c>
       <c r="D1183" t="n">
-        <v>109000</v>
+        <v>99900</v>
       </c>
       <c r="E1183" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F1183" t="n">
         <v>0</v>
@@ -31200,24 +31186,24 @@
     <row r="1184">
       <c r="A1184" t="inlineStr">
         <is>
-          <t>스틱청소기</t>
+          <t>핸디스틱청소기</t>
         </is>
       </c>
       <c r="B1184" t="inlineStr">
         <is>
-          <t>더트데빌</t>
+          <t>신일전자</t>
         </is>
       </c>
       <c r="C1184" t="inlineStr">
         <is>
-          <t>Quick Clean DQV-DVB-DA</t>
+          <t>SVC-1005NW</t>
         </is>
       </c>
       <c r="D1184" t="n">
-        <v>69000</v>
+        <v>169150</v>
       </c>
       <c r="E1184" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F1184" t="n">
         <v>0</v>
@@ -31231,16 +31217,16 @@
       </c>
       <c r="B1185" t="inlineStr">
         <is>
-          <t>마끼다</t>
+          <t>유셀</t>
         </is>
       </c>
       <c r="C1185" t="inlineStr">
         <is>
-          <t>BCL180Z</t>
+          <t>EV-888</t>
         </is>
       </c>
       <c r="D1185" t="n">
-        <v>55150</v>
+        <v>109000</v>
       </c>
       <c r="E1185" t="n">
         <v>20</v>
@@ -31252,24 +31238,24 @@
     <row r="1186">
       <c r="A1186" t="inlineStr">
         <is>
-          <t>핸디스틱청소기</t>
+          <t>스틱청소기</t>
         </is>
       </c>
       <c r="B1186" t="inlineStr">
         <is>
-          <t>아로나전자</t>
+          <t>더트데빌</t>
         </is>
       </c>
       <c r="C1186" t="inlineStr">
         <is>
-          <t>AL-6200</t>
+          <t>Quick Clean DQV-DVB-DA</t>
         </is>
       </c>
       <c r="D1186" t="n">
-        <v>64130</v>
+        <v>69000</v>
       </c>
       <c r="E1186" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F1186" t="n">
         <v>0</v>
@@ -31283,19 +31269,19 @@
       </c>
       <c r="B1187" t="inlineStr">
         <is>
-          <t>키친아트</t>
+          <t>마끼다</t>
         </is>
       </c>
       <c r="C1187" t="inlineStr">
         <is>
-          <t>WY-7070</t>
+          <t>BCL180Z</t>
         </is>
       </c>
       <c r="D1187" t="n">
-        <v>129000</v>
+        <v>55150</v>
       </c>
       <c r="E1187" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F1187" t="n">
         <v>0</v>
@@ -31314,11 +31300,11 @@
       </c>
       <c r="C1188" t="inlineStr">
         <is>
-          <t>AL-4200</t>
+          <t>AL-6200</t>
         </is>
       </c>
       <c r="D1188" t="n">
-        <v>55890</v>
+        <v>64130</v>
       </c>
       <c r="E1188" t="n">
         <v>0</v>
@@ -31330,50 +31316,50 @@
     <row r="1189">
       <c r="A1189" t="inlineStr">
         <is>
-          <t>진공청소기</t>
+          <t>핸디스틱청소기</t>
         </is>
       </c>
       <c r="B1189" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>키친아트</t>
         </is>
       </c>
       <c r="C1189" t="inlineStr">
         <is>
-          <t>코드제로 T9 T960D</t>
+          <t>WY-7070</t>
         </is>
       </c>
       <c r="D1189" t="n">
-        <v>1523960</v>
+        <v>129000</v>
       </c>
       <c r="E1189" t="n">
         <v>0</v>
       </c>
       <c r="F1189" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1190">
       <c r="A1190" t="inlineStr">
         <is>
-          <t>진공청소기</t>
+          <t>핸디스틱청소기</t>
         </is>
       </c>
       <c r="B1190" t="inlineStr">
         <is>
-          <t>신일전자</t>
+          <t>아로나전자</t>
         </is>
       </c>
       <c r="C1190" t="inlineStr">
         <is>
-          <t>SVC-D500SR</t>
+          <t>AL-4200</t>
         </is>
       </c>
       <c r="D1190" t="n">
-        <v>192100</v>
+        <v>55890</v>
       </c>
       <c r="E1190" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F1190" t="n">
         <v>0</v>
@@ -31382,27 +31368,27 @@
     <row r="1191">
       <c r="A1191" t="inlineStr">
         <is>
-          <t>진공청소기</t>
+          <t>핸디스틱청소기</t>
         </is>
       </c>
       <c r="B1191" t="inlineStr">
         <is>
-          <t>신일전자</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="C1191" t="inlineStr">
         <is>
-          <t>SVC-D550GS</t>
+          <t>오브제컬렉션 코드제로 A9S AX948</t>
         </is>
       </c>
       <c r="D1191" t="n">
-        <v>202260</v>
+        <v>1710000</v>
       </c>
       <c r="E1191" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F1191" t="n">
-        <v>0</v>
+        <v>320</v>
       </c>
     </row>
     <row r="1192">
@@ -31413,22 +31399,22 @@
       </c>
       <c r="B1192" t="inlineStr">
         <is>
-          <t>마끼다</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="C1192" t="inlineStr">
         <is>
-          <t>DCL501</t>
+          <t>코드제로 T9 T960D</t>
         </is>
       </c>
       <c r="D1192" t="n">
-        <v>761200</v>
+        <v>1523960</v>
       </c>
       <c r="E1192" t="n">
         <v>0</v>
       </c>
       <c r="F1192" t="n">
-        <v>66</v>
+        <v>250</v>
       </c>
     </row>
     <row r="1193">
@@ -31439,22 +31425,22 @@
       </c>
       <c r="B1193" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>신일전자</t>
         </is>
       </c>
       <c r="C1193" t="inlineStr">
         <is>
-          <t>코드제로 T9 T960D</t>
+          <t>SVC-D500SR</t>
         </is>
       </c>
       <c r="D1193" t="n">
-        <v>1523960</v>
+        <v>192100</v>
       </c>
       <c r="E1193" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F1193" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1194">
@@ -31465,19 +31451,19 @@
       </c>
       <c r="B1194" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>신일전자</t>
         </is>
       </c>
       <c r="C1194" t="inlineStr">
         <is>
-          <t>코드제로 싸이킹 K95</t>
+          <t>SVC-D550GS</t>
         </is>
       </c>
       <c r="D1194" t="n">
-        <v>1359230</v>
+        <v>202260</v>
       </c>
       <c r="E1194" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F1194" t="n">
         <v>0</v>
@@ -31792,6 +31778,84 @@
         <v>40</v>
       </c>
       <c r="F1206" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1207">
+      <c r="A1207" t="inlineStr">
+        <is>
+          <t>진공청소기</t>
+        </is>
+      </c>
+      <c r="B1207" t="inlineStr">
+        <is>
+          <t>마끼다</t>
+        </is>
+      </c>
+      <c r="C1207" t="inlineStr">
+        <is>
+          <t>DCL501</t>
+        </is>
+      </c>
+      <c r="D1207" t="n">
+        <v>761200</v>
+      </c>
+      <c r="E1207" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1207" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="1208">
+      <c r="A1208" t="inlineStr">
+        <is>
+          <t>진공청소기</t>
+        </is>
+      </c>
+      <c r="B1208" t="inlineStr">
+        <is>
+          <t>LG전자</t>
+        </is>
+      </c>
+      <c r="C1208" t="inlineStr">
+        <is>
+          <t>코드제로 T9 T960D</t>
+        </is>
+      </c>
+      <c r="D1208" t="n">
+        <v>1523960</v>
+      </c>
+      <c r="E1208" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1208" t="n">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="1209">
+      <c r="A1209" t="inlineStr">
+        <is>
+          <t>진공청소기</t>
+        </is>
+      </c>
+      <c r="B1209" t="inlineStr">
+        <is>
+          <t>LG전자</t>
+        </is>
+      </c>
+      <c r="C1209" t="inlineStr">
+        <is>
+          <t>코드제로 싸이킹 K95</t>
+        </is>
+      </c>
+      <c r="D1209" t="n">
+        <v>1359230</v>
+      </c>
+      <c r="E1209" t="n">
+        <v>40</v>
+      </c>
+      <c r="F1209" t="n">
         <v>0</v>
       </c>
     </row>
